--- a/data/RawData/ObsData/2001-2009/01-04-2003.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-04-2003.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\pdfData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9553ABC0-553C-4BC3-8889-E4C76533B32A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C419FF52-AABD-46EA-927E-8A04701143FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="913">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="911">
   <si>
     <t>Emmen</t>
   </si>
@@ -1276,9 +1276,6 @@
   </si>
   <si>
     <t>LA12</t>
-  </si>
-  <si>
-    <t>'02/93</t>
   </si>
   <si>
     <t>T3-BO</t>
@@ -2708,9 +2705,6 @@
   </si>
   <si>
     <t>MN4</t>
-  </si>
-  <si>
-    <t>097/97</t>
   </si>
   <si>
     <t>TR12</t>
@@ -3886,31 +3880,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A190" workbookViewId="0">
-      <selection activeCell="I205" sqref="I205"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="F52" sqref="F52"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30.6640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.109375" customWidth="1"/>
+    <col min="3" max="3" width="15.1640625" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.77734375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.83203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13" customWidth="1"/>
     <col min="9" max="9" width="28.33203125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="8" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.77734375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.44140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.83203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.5" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="5.77734375" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>38</v>
       </c>
@@ -3929,7 +3923,7 @@
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="14" t="s">
         <v>39</v>
       </c>
@@ -3995,7 +3989,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>0</v>
       </c>
@@ -4015,7 +4009,7 @@
         <v>22</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="H4" s="2"/>
       <c r="I4" s="17" t="s">
@@ -4038,7 +4032,7 @@
       </c>
       <c r="O4" s="17"/>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A5" s="14" t="s">
         <v>1</v>
       </c>
@@ -4058,16 +4052,16 @@
         <v>55</v>
       </c>
       <c r="G5" s="17" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="H5" s="4"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="K5" s="17"/>
       <c r="L5" s="17" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="M5" s="17" t="s">
         <v>6</v>
@@ -4095,7 +4089,7 @@
         <v>60</v>
       </c>
       <c r="G6" s="16" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="17"/>
@@ -4116,7 +4110,7 @@
       </c>
       <c r="O6" s="17"/>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A7" s="14"/>
       <c r="B7" s="14" t="s">
         <v>64</v>
@@ -4137,13 +4131,13 @@
       <c r="H7" s="4"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="K7" s="17" t="s">
         <v>51</v>
       </c>
       <c r="L7" s="17" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="M7" s="17" t="s">
         <v>5</v>
@@ -4153,7 +4147,7 @@
       </c>
       <c r="O7" s="17"/>
     </row>
-    <row r="8" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16"/>
       <c r="B8" s="14" t="s">
         <v>70</v>
@@ -4174,13 +4168,13 @@
       <c r="H8" s="2"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17" t="s">
+        <v>836</v>
+      </c>
+      <c r="K8" s="17" t="s">
         <v>837</v>
       </c>
-      <c r="K8" s="17" t="s">
-        <v>838</v>
-      </c>
       <c r="L8" s="17" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="M8" s="17" t="s">
         <v>6</v>
@@ -4190,7 +4184,7 @@
       </c>
       <c r="O8" s="17"/>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A9" s="14"/>
       <c r="B9" s="14" t="s">
         <v>12</v>
@@ -4225,7 +4219,7 @@
       </c>
       <c r="O9" s="17"/>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A10" s="14"/>
       <c r="B10" s="14" t="s">
         <v>13</v>
@@ -4281,7 +4275,7 @@
       </c>
       <c r="O11" s="17"/>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A12" s="14"/>
       <c r="B12" s="14" t="s">
         <v>76</v>
@@ -4296,7 +4290,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="17"/>
       <c r="J12" s="17" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
@@ -4306,7 +4300,7 @@
       </c>
       <c r="O12" s="17"/>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A13" s="14"/>
       <c r="B13" s="14" t="s">
         <v>79</v>
@@ -4321,7 +4315,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="17"/>
       <c r="J13" s="26" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="K13" s="26"/>
       <c r="L13" s="26"/>
@@ -4331,7 +4325,7 @@
       </c>
       <c r="O13" s="26"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A14" s="17"/>
       <c r="B14" s="14" t="s">
         <v>4</v>
@@ -4352,7 +4346,7 @@
       <c r="N14" s="1"/>
       <c r="O14" s="1"/>
     </row>
-    <row r="15" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -4381,7 +4375,7 @@
       </c>
       <c r="O15" s="17"/>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A16" s="16" t="s">
         <v>2</v>
       </c>
@@ -4422,7 +4416,7 @@
       </c>
       <c r="O16" s="17"/>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A17" s="16" t="s">
         <v>88</v>
       </c>
@@ -4463,7 +4457,7 @@
         <v>4219</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A18" s="16"/>
       <c r="B18" s="16" t="s">
         <v>94</v>
@@ -4537,7 +4531,7 @@
       </c>
       <c r="O19" s="14"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A20" s="16"/>
       <c r="B20" s="16" t="s">
         <v>121</v>
@@ -4572,7 +4566,7 @@
       </c>
       <c r="O20" s="17"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A21" s="16"/>
       <c r="B21" s="16" t="s">
         <v>101</v>
@@ -4605,7 +4599,7 @@
       </c>
       <c r="O21" s="17"/>
     </row>
-    <row r="22" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="23"/>
       <c r="B22" s="23" t="s">
         <v>123</v>
@@ -4673,7 +4667,7 @@
         <v>106</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D24" s="16" t="s">
         <v>106</v>
@@ -4767,13 +4761,13 @@
     <row r="27" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="16"/>
       <c r="B27" s="16" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D27" s="16" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E27" s="16" t="s">
         <v>6</v>
@@ -4803,7 +4797,7 @@
         <v>4488</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A28" s="2"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -4915,7 +4909,7 @@
       </c>
       <c r="O31" s="14"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A32" s="16"/>
       <c r="B32" s="14" t="s">
         <v>277</v>
@@ -4956,16 +4950,16 @@
       <c r="G33" s="16"/>
       <c r="H33" s="2"/>
       <c r="I33" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J33" s="14" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="K33" s="17" t="s">
         <v>122</v>
       </c>
       <c r="L33" s="17" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="M33" s="17" t="s">
         <v>5</v>
@@ -4974,7 +4968,7 @@
         <v>116</v>
       </c>
       <c r="O33" s="14" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
     </row>
     <row r="34" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -5060,7 +5054,7 @@
         <v>134</v>
       </c>
       <c r="G37" s="17" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="H37" s="3"/>
       <c r="I37" s="16"/>
@@ -5140,7 +5134,7 @@
         <v>139</v>
       </c>
       <c r="G39" s="17" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="H39" s="2"/>
       <c r="I39" s="16"/>
@@ -5161,7 +5155,7 @@
       </c>
       <c r="O39" s="14"/>
     </row>
-    <row r="40" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="17"/>
       <c r="B40" s="17" t="s">
         <v>146</v>
@@ -5196,7 +5190,7 @@
     </row>
     <row r="41" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B41" s="17" t="s">
         <v>268</v>
@@ -5210,13 +5204,13 @@
       <c r="G41" s="25"/>
       <c r="H41" s="4"/>
       <c r="I41" s="16" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J41" s="14" t="s">
         <v>242</v>
       </c>
       <c r="K41" s="16" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L41" s="16" t="s">
         <v>242</v>
@@ -5229,7 +5223,7 @@
       </c>
       <c r="O41" s="14"/>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A42" s="17"/>
       <c r="B42" s="26" t="s">
         <v>155</v>
@@ -5258,7 +5252,7 @@
       <c r="N42" s="4"/>
       <c r="O42" s="4"/>
     </row>
-    <row r="43" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="17"/>
       <c r="B43" s="17" t="s">
         <v>148</v>
@@ -5278,16 +5272,16 @@
       <c r="G43" s="17"/>
       <c r="H43" s="5"/>
       <c r="I43" s="14" t="s">
+        <v>822</v>
+      </c>
+      <c r="J43" s="14" t="s">
         <v>823</v>
-      </c>
-      <c r="J43" s="14" t="s">
-        <v>824</v>
       </c>
       <c r="K43" s="14" t="s">
         <v>28</v>
       </c>
       <c r="L43" s="14" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="M43" s="14" t="s">
         <v>6</v>
@@ -5334,7 +5328,7 @@
       </c>
       <c r="O44" s="14"/>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A45" s="28" t="s">
         <v>142</v>
       </c>
@@ -5373,7 +5367,7 @@
       </c>
       <c r="O45" s="14"/>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A46" s="17"/>
       <c r="B46" s="29" t="s">
         <v>141</v>
@@ -5404,7 +5398,7 @@
       </c>
       <c r="O46" s="16"/>
     </row>
-    <row r="47" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H47" s="3"/>
       <c r="I47" s="3"/>
       <c r="J47" s="4"/>
@@ -5414,7 +5408,7 @@
       <c r="N47" s="4"/>
       <c r="O47" s="4"/>
     </row>
-    <row r="48" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="14" t="s">
         <v>39</v>
       </c>
@@ -5426,22 +5420,22 @@
       <c r="G48" s="14"/>
       <c r="H48" s="3"/>
       <c r="I48" s="14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="K48" s="14" t="s">
         <v>54</v>
       </c>
       <c r="L48" s="14" t="s">
+        <v>892</v>
+      </c>
+      <c r="M48" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N48" s="19" t="s">
         <v>894</v>
-      </c>
-      <c r="M48" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N48" s="19" t="s">
-        <v>896</v>
       </c>
       <c r="O48" s="14"/>
     </row>
@@ -5470,13 +5464,13 @@
       <c r="H49" s="2"/>
       <c r="I49" s="14"/>
       <c r="J49" s="14" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="K49" s="14" t="s">
         <v>29</v>
       </c>
       <c r="L49" s="14" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="M49" s="14" t="s">
         <v>5</v>
@@ -5488,7 +5482,7 @@
         <v>4771</v>
       </c>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A50" s="14" t="s">
         <v>172</v>
       </c>
@@ -5519,22 +5513,22 @@
       <c r="N50" s="1"/>
       <c r="O50" s="1"/>
     </row>
-    <row r="51" spans="1:15" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:15" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="14" t="s">
         <v>180</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C51" s="14"/>
       <c r="D51" s="14" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="E51" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F51" s="19" t="s">
-        <v>891</v>
+        <v>96</v>
       </c>
       <c r="G51" s="18">
         <v>4431</v>
@@ -5548,14 +5542,14 @@
       <c r="N51" s="1"/>
       <c r="O51" s="1"/>
     </row>
-    <row r="52" spans="1:15" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:15" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="14"/>
       <c r="B52" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C52" s="14"/>
       <c r="D52" s="14" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="E52" s="14" t="s">
         <v>5</v>
@@ -5587,14 +5581,14 @@
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="14"/>
       <c r="B53" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C53" s="14"/>
       <c r="D53" s="14" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="E53" s="14" t="s">
         <v>6</v>
@@ -5627,13 +5621,13 @@
     <row r="54" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="20"/>
       <c r="B54" s="14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>181</v>
       </c>
       <c r="D54" s="14" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="E54" s="14" t="s">
         <v>5</v>
@@ -5661,10 +5655,10 @@
       </c>
       <c r="O54" s="17"/>
     </row>
-    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="14"/>
       <c r="B55" s="14" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="C55" s="14"/>
       <c r="D55" s="14"/>
@@ -5692,10 +5686,10 @@
       </c>
       <c r="O55" s="25"/>
     </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A56" s="16"/>
       <c r="B56" s="16" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="C56" s="16"/>
       <c r="D56" s="16"/>
@@ -5723,7 +5717,7 @@
       </c>
       <c r="O56" s="17"/>
     </row>
-    <row r="57" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2"/>
       <c r="B57" s="2"/>
       <c r="C57" s="2"/>
@@ -5772,7 +5766,7 @@
         <v>152</v>
       </c>
       <c r="G58" s="16" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="H58" s="3"/>
       <c r="I58" s="17"/>
@@ -5808,7 +5802,7 @@
       <c r="H59" s="5"/>
       <c r="I59" s="26"/>
       <c r="J59" s="26" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="K59" s="26" t="s">
         <v>318</v>
@@ -5818,14 +5812,14 @@
         <v>6</v>
       </c>
       <c r="N59" s="27" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="O59" s="26"/>
     </row>
     <row r="60" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="16"/>
       <c r="B60" s="16" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="C60" s="16"/>
       <c r="D60" s="16"/>
@@ -5837,7 +5831,7 @@
       <c r="H60" s="3"/>
       <c r="I60" s="17"/>
       <c r="J60" s="38" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="K60" s="38"/>
       <c r="L60" s="38"/>
@@ -5847,7 +5841,7 @@
       </c>
       <c r="O60" s="17"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A61" s="2"/>
       <c r="B61" s="2"/>
       <c r="C61" s="2"/>
@@ -5874,7 +5868,7 @@
       </c>
       <c r="O61" s="17"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A62" s="14" t="s">
         <v>188</v>
       </c>
@@ -5897,7 +5891,7 @@
       <c r="H62" s="2"/>
       <c r="I62" s="26"/>
       <c r="J62" s="26" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="K62" s="26"/>
       <c r="L62" s="26"/>
@@ -5928,7 +5922,7 @@
       <c r="H63" s="2"/>
       <c r="I63" s="17"/>
       <c r="J63" s="17" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="K63" s="17"/>
       <c r="L63" s="17"/>
@@ -5938,7 +5932,7 @@
       </c>
       <c r="O63" s="17"/>
     </row>
-    <row r="64" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="17"/>
       <c r="B64" s="14" t="s">
         <v>193</v>
@@ -6076,7 +6070,7 @@
         <v>4467</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="14"/>
       <c r="B68" s="14" t="s">
         <v>198</v>
@@ -6177,7 +6171,7 @@
       </c>
       <c r="O70" s="16"/>
     </row>
-    <row r="71" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="16"/>
       <c r="B71" s="14" t="s">
         <v>283</v>
@@ -6256,7 +6250,7 @@
       </c>
       <c r="O73" s="16"/>
     </row>
-    <row r="74" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2"/>
       <c r="B74" s="2"/>
       <c r="C74" s="2"/>
@@ -6312,7 +6306,7 @@
       </c>
       <c r="O75" s="16"/>
     </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
         <v>286</v>
       </c>
@@ -6337,7 +6331,7 @@
       <c r="H76" s="3"/>
       <c r="I76" s="17"/>
       <c r="J76" s="14" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="K76" s="14"/>
       <c r="L76" s="14"/>
@@ -6347,7 +6341,7 @@
       </c>
       <c r="O76" s="16"/>
     </row>
-    <row r="77" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="14"/>
       <c r="B77" s="15" t="s">
         <v>287</v>
@@ -6376,7 +6370,7 @@
       <c r="N77" s="32"/>
       <c r="O77" s="14"/>
     </row>
-    <row r="78" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="16"/>
       <c r="B78" s="14" t="s">
         <v>232</v>
@@ -6428,7 +6422,7 @@
       <c r="G80" s="2"/>
       <c r="H80" s="3"/>
       <c r="I80" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J80" s="14" t="s">
         <v>252</v>
@@ -6447,7 +6441,7 @@
       </c>
       <c r="O80" s="16"/>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A81" s="17" t="s">
         <v>235</v>
       </c>
@@ -6469,7 +6463,7 @@
       <c r="G81" s="29"/>
       <c r="H81" s="3"/>
       <c r="I81" s="41" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="J81" s="41" t="s">
         <v>242</v>
@@ -6488,7 +6482,7 @@
       </c>
       <c r="O81" s="41"/>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A82" s="17" t="s">
         <v>237</v>
       </c>
@@ -6595,7 +6589,7 @@
       </c>
       <c r="O84" s="16"/>
     </row>
-    <row r="85" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="17"/>
       <c r="B85" s="17" t="s">
         <v>248</v>
@@ -6622,20 +6616,20 @@
       <c r="N85" s="4"/>
       <c r="O85" s="4"/>
     </row>
-    <row r="86" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="17"/>
       <c r="B86" s="17" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="C86" s="17"/>
       <c r="D86" s="17" t="s">
+        <v>908</v>
+      </c>
+      <c r="E86" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F86" s="64" t="s">
         <v>910</v>
-      </c>
-      <c r="E86" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="64" t="s">
-        <v>912</v>
       </c>
       <c r="G86" s="17"/>
       <c r="H86" s="5"/>
@@ -6661,20 +6655,20 @@
         <v>4486</v>
       </c>
     </row>
-    <row r="87" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="40"/>
       <c r="B87" s="65" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="C87" s="40"/>
       <c r="D87" s="65" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="E87" s="65" t="s">
         <v>6</v>
       </c>
       <c r="F87" s="64" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="G87" s="40"/>
       <c r="H87" s="2"/>
@@ -6773,7 +6767,7 @@
       <c r="N90" s="2"/>
       <c r="O90" s="2"/>
     </row>
-    <row r="91" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="17"/>
       <c r="B91" s="14" t="s">
         <v>258</v>
@@ -6802,7 +6796,7 @@
       <c r="N91" s="29"/>
       <c r="O91" s="17"/>
     </row>
-    <row r="92" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="14"/>
       <c r="B92" s="14" t="s">
         <v>261</v>
@@ -6840,10 +6834,10 @@
         <v>60</v>
       </c>
       <c r="O92" s="17" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="14"/>
       <c r="B93" s="14" t="s">
         <v>265</v>
@@ -6879,10 +6873,10 @@
         <v>359</v>
       </c>
       <c r="O93" s="17" t="s">
-        <v>843</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="14"/>
       <c r="B94" s="14" t="s">
         <v>317</v>
@@ -6897,13 +6891,13 @@
       <c r="H94" s="2"/>
       <c r="I94" s="38"/>
       <c r="J94" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K94" s="38" t="s">
         <v>208</v>
       </c>
       <c r="L94" s="38" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M94" s="38" t="s">
         <v>5</v>
@@ -6916,7 +6910,7 @@
     <row r="95" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="14"/>
       <c r="B95" s="14" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C95" s="17"/>
       <c r="D95" s="17"/>
@@ -6940,7 +6934,7 @@
         <v>4068</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A96" s="16"/>
       <c r="B96" s="14" t="s">
         <v>271</v>
@@ -6990,7 +6984,7 @@
       </c>
       <c r="O97" s="29"/>
     </row>
-    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="4"/>
       <c r="B98" s="4"/>
       <c r="C98" s="3"/>
@@ -7011,9 +7005,9 @@
       </c>
       <c r="O98" s="17"/>
     </row>
-    <row r="99" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B99" s="14" t="s">
         <v>276</v>
@@ -7044,9 +7038,9 @@
       </c>
       <c r="O99" s="17"/>
     </row>
-    <row r="100" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="14" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B100" s="17" t="s">
         <v>316</v>
@@ -7077,7 +7071,7 @@
       </c>
       <c r="O100" s="17"/>
     </row>
-    <row r="101" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="G101" s="3"/>
       <c r="H101" s="1"/>
       <c r="I101" s="4"/>
@@ -7088,7 +7082,7 @@
       <c r="N101" s="6"/>
       <c r="O101" s="3"/>
     </row>
-    <row r="102" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="14" t="s">
         <v>295</v>
       </c>
@@ -7109,7 +7103,7 @@
       <c r="N102" s="17"/>
       <c r="O102" s="17"/>
     </row>
-    <row r="103" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="14" t="s">
         <v>296</v>
       </c>
@@ -7154,7 +7148,7 @@
         <v>4445</v>
       </c>
     </row>
-    <row r="104" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="14" t="s">
         <v>319</v>
       </c>
@@ -7197,7 +7191,7 @@
         <v>4723</v>
       </c>
     </row>
-    <row r="105" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="15"/>
       <c r="B105" s="14" t="s">
         <v>302</v>
@@ -7234,7 +7228,7 @@
       </c>
       <c r="O105" s="16"/>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A106" s="14"/>
       <c r="B106" s="14" t="s">
         <v>300</v>
@@ -7345,7 +7339,7 @@
       </c>
       <c r="O108" s="16"/>
     </row>
-    <row r="109" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -7356,21 +7350,21 @@
       <c r="H109" s="1"/>
       <c r="I109" s="17"/>
       <c r="J109" s="14" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="K109" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L109" s="17"/>
       <c r="M109" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N109" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O109" s="17"/>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A110" s="14" t="s">
         <v>307</v>
       </c>
@@ -7389,7 +7383,7 @@
       <c r="N110" s="7"/>
       <c r="O110" s="7"/>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A111" s="14" t="s">
         <v>308</v>
       </c>
@@ -7463,7 +7457,7 @@
       </c>
       <c r="O112" s="16"/>
     </row>
-    <row r="113" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -7492,7 +7486,7 @@
         <v>4225</v>
       </c>
     </row>
-    <row r="114" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A114" s="14" t="s">
         <v>312</v>
       </c>
@@ -7572,7 +7566,7 @@
       </c>
       <c r="O115" s="16"/>
     </row>
-    <row r="116" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -7599,7 +7593,7 @@
       </c>
       <c r="O116" s="17"/>
     </row>
-    <row r="117" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A117" s="14" t="s">
         <v>295</v>
       </c>
@@ -7628,7 +7622,7 @@
       </c>
       <c r="O117" s="17"/>
     </row>
-    <row r="118" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A118" s="14" t="s">
         <v>330</v>
       </c>
@@ -7741,7 +7735,7 @@
         <v>4273</v>
       </c>
     </row>
-    <row r="121" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A121" s="14"/>
       <c r="B121" s="14" t="s">
         <v>335</v>
@@ -7762,13 +7756,13 @@
       <c r="H121" s="1"/>
       <c r="I121" s="17"/>
       <c r="J121" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="K121" s="14" t="s">
         <v>404</v>
       </c>
       <c r="L121" s="14" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="M121" s="14" t="s">
         <v>5</v>
@@ -7815,7 +7809,7 @@
       </c>
       <c r="O122" s="16"/>
     </row>
-    <row r="123" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A123" s="16"/>
       <c r="B123" s="14" t="s">
         <v>322</v>
@@ -7836,7 +7830,7 @@
       <c r="N123" s="2"/>
       <c r="O123" s="2"/>
     </row>
-    <row r="124" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A124" s="16"/>
       <c r="B124" s="14" t="s">
         <v>323</v>
@@ -7859,7 +7853,7 @@
       <c r="N124" s="16"/>
       <c r="O124" s="16"/>
     </row>
-    <row r="125" spans="1:15" ht="15.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:15" ht="15.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2"/>
       <c r="B125" s="2"/>
       <c r="C125" s="2"/>
@@ -7890,7 +7884,7 @@
         <v>4701</v>
       </c>
     </row>
-    <row r="126" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="14" t="s">
         <v>321</v>
       </c>
@@ -8007,7 +8001,7 @@
       <c r="G129" s="17"/>
       <c r="H129" s="1"/>
       <c r="I129" s="14" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="J129" s="14"/>
       <c r="K129" s="16"/>
@@ -8016,7 +8010,7 @@
       <c r="N129" s="16"/>
       <c r="O129" s="16"/>
     </row>
-    <row r="130" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A130" s="16"/>
       <c r="B130" s="14" t="s">
         <v>327</v>
@@ -8030,16 +8024,16 @@
       <c r="G130" s="16"/>
       <c r="H130" s="1"/>
       <c r="I130" s="14" t="s">
+        <v>473</v>
+      </c>
+      <c r="J130" s="14" t="s">
         <v>474</v>
-      </c>
-      <c r="J130" s="14" t="s">
-        <v>475</v>
       </c>
       <c r="K130" s="14" t="s">
         <v>71</v>
       </c>
       <c r="L130" s="14" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="M130" s="14" t="s">
         <v>6</v>
@@ -8066,13 +8060,13 @@
       <c r="H131" s="1"/>
       <c r="I131" s="16"/>
       <c r="J131" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="K131" s="14" t="s">
         <v>158</v>
       </c>
       <c r="L131" s="14" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="M131" s="14" t="s">
         <v>5</v>
@@ -8081,10 +8075,10 @@
         <v>55</v>
       </c>
       <c r="O131" s="14" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="132" spans="1:15" x14ac:dyDescent="0.25">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="132" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A132" s="2"/>
       <c r="B132" s="2"/>
       <c r="C132" s="2"/>
@@ -8095,13 +8089,13 @@
       <c r="H132" s="1"/>
       <c r="I132" s="16"/>
       <c r="J132" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="K132" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L132" s="14" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M132" s="14" t="s">
         <v>6</v>
@@ -8124,13 +8118,13 @@
       <c r="H133" s="1"/>
       <c r="I133" s="17"/>
       <c r="J133" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="K133" s="14" t="s">
         <v>65</v>
       </c>
       <c r="L133" s="14" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="M133" s="14" t="s">
         <v>6</v>
@@ -8165,13 +8159,13 @@
       <c r="H134" s="1"/>
       <c r="I134" s="16"/>
       <c r="J134" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="K134" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L134" s="14" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="M134" s="14" t="s">
         <v>5</v>
@@ -8181,7 +8175,7 @@
       </c>
       <c r="O134" s="16"/>
     </row>
-    <row r="135" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="14" t="s">
         <v>344</v>
       </c>
@@ -8204,7 +8198,7 @@
       <c r="H135" s="1"/>
       <c r="I135" s="17"/>
       <c r="J135" s="14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="K135" s="14" t="s">
         <v>14</v>
@@ -8237,7 +8231,7 @@
       <c r="H136" s="1"/>
       <c r="I136" s="15"/>
       <c r="J136" s="15" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="K136" s="15" t="s">
         <v>15</v>
@@ -8260,7 +8254,7 @@
       <c r="H137" s="1"/>
       <c r="I137" s="16"/>
       <c r="J137" s="14" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="K137" s="16"/>
       <c r="L137" s="16"/>
@@ -8281,7 +8275,7 @@
       <c r="H138" s="1"/>
       <c r="I138" s="16"/>
       <c r="J138" s="14" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="K138" s="16"/>
       <c r="L138" s="16"/>
@@ -8291,7 +8285,7 @@
       </c>
       <c r="O138" s="16"/>
     </row>
-    <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="14" t="s">
         <v>347</v>
       </c>
@@ -8304,7 +8298,7 @@
       <c r="H139" s="1"/>
       <c r="I139" s="17"/>
       <c r="J139" s="14" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="K139" s="17"/>
       <c r="L139" s="17"/>
@@ -8319,7 +8313,7 @@
         <v>329</v>
       </c>
       <c r="B140" s="14" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
       <c r="C140" s="14" t="s">
         <v>26</v>
@@ -8337,7 +8331,7 @@
       <c r="H140" s="1"/>
       <c r="I140" s="16"/>
       <c r="J140" s="14" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="K140" s="16"/>
       <c r="L140" s="16"/>
@@ -8347,7 +8341,7 @@
       </c>
       <c r="O140" s="17"/>
     </row>
-    <row r="141" spans="1:15" ht="15" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:15" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A141" s="46"/>
       <c r="B141" s="14" t="s">
         <v>349</v>
@@ -8374,10 +8368,10 @@
       <c r="N141" s="1"/>
       <c r="O141" s="2"/>
     </row>
-    <row r="142" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="16"/>
       <c r="B142" s="14" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C142" s="14"/>
       <c r="D142" s="14"/>
@@ -8415,10 +8409,10 @@
       <c r="G143" s="41"/>
       <c r="H143" s="1"/>
       <c r="I143" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="K143" s="14" t="s">
         <v>158</v>
@@ -8451,13 +8445,13 @@
       <c r="H144" s="1"/>
       <c r="I144" s="16"/>
       <c r="J144" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="K144" s="14" t="s">
         <v>29</v>
       </c>
       <c r="L144" s="14" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="M144" s="14" t="s">
         <v>5</v>
@@ -8480,13 +8474,13 @@
       <c r="H145" s="1"/>
       <c r="I145" s="16"/>
       <c r="J145" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="K145" s="14" t="s">
         <v>80</v>
       </c>
       <c r="L145" s="14" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M145" s="14" t="s">
         <v>5</v>
@@ -8507,13 +8501,13 @@
       <c r="H146" s="1"/>
       <c r="I146" s="16"/>
       <c r="J146" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="K146" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L146" s="14" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="M146" s="14" t="s">
         <v>6</v>
@@ -8523,7 +8517,7 @@
       </c>
       <c r="O146" s="16"/>
     </row>
-    <row r="147" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="14" t="s">
         <v>40</v>
       </c>
@@ -8548,13 +8542,13 @@
       <c r="H147" s="1"/>
       <c r="I147" s="17"/>
       <c r="J147" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="K147" s="14" t="s">
         <v>77</v>
       </c>
       <c r="L147" s="14" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M147" s="14" t="s">
         <v>6</v>
@@ -8564,9 +8558,9 @@
       </c>
       <c r="O147" s="17"/>
     </row>
-    <row r="148" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A148" s="14" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B148" s="14"/>
       <c r="C148" s="16"/>
@@ -8577,13 +8571,13 @@
       <c r="H148" s="1"/>
       <c r="I148" s="17"/>
       <c r="J148" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="K148" s="14" t="s">
         <v>59</v>
       </c>
       <c r="L148" s="14" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="M148" s="14" t="s">
         <v>6</v>
@@ -8593,9 +8587,9 @@
       </c>
       <c r="O148" s="17"/>
     </row>
-    <row r="149" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A149" s="14" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B149" s="14" t="s">
         <v>412</v>
@@ -8610,7 +8604,7 @@
         <v>5</v>
       </c>
       <c r="F149" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G149" s="16"/>
       <c r="H149" s="1"/>
@@ -8622,9 +8616,9 @@
       <c r="N149" s="4"/>
       <c r="O149" s="4"/>
     </row>
-    <row r="150" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="14" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B150" s="14" t="s">
         <v>413</v>
@@ -8638,13 +8632,13 @@
       <c r="E150" s="14" t="s">
         <v>6</v>
       </c>
-      <c r="F150" s="14" t="s">
-        <v>414</v>
+      <c r="F150" s="19" t="s">
+        <v>715</v>
       </c>
       <c r="G150" s="16"/>
       <c r="H150" s="1"/>
       <c r="I150" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J150" s="14"/>
       <c r="K150" s="14"/>
@@ -8656,52 +8650,52 @@
     <row r="151" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="16"/>
       <c r="B151" s="14" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="C151" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="D151" s="14" t="s">
+        <v>444</v>
+      </c>
+      <c r="E151" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F151" s="14" t="s">
         <v>415</v>
-      </c>
-      <c r="D151" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="E151" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F151" s="14" t="s">
-        <v>416</v>
       </c>
       <c r="G151" s="16"/>
       <c r="H151" s="1"/>
       <c r="I151" s="14" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="J151" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="K151" s="14" t="s">
         <v>190</v>
       </c>
       <c r="L151" s="14" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M151" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N151" s="36" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="O151" s="16"/>
     </row>
     <row r="152" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="16"/>
       <c r="B152" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C152" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D152" s="14" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="E152" s="14" t="s">
         <v>5</v>
@@ -8714,16 +8708,16 @@
       </c>
       <c r="H152" s="1"/>
       <c r="I152" s="14" t="s">
+        <v>481</v>
+      </c>
+      <c r="J152" s="14" t="s">
         <v>482</v>
-      </c>
-      <c r="J152" s="14" t="s">
-        <v>483</v>
       </c>
       <c r="K152" s="14" t="s">
         <v>281</v>
       </c>
       <c r="L152" s="14" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="M152" s="14" t="s">
         <v>5</v>
@@ -8738,7 +8732,7 @@
     <row r="153" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="17"/>
       <c r="B153" s="14" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="C153" s="17"/>
       <c r="D153" s="17"/>
@@ -8750,19 +8744,19 @@
       <c r="H153" s="1"/>
       <c r="I153" s="16"/>
       <c r="J153" s="14" t="s">
+        <v>483</v>
+      </c>
+      <c r="K153" s="14" t="s">
         <v>484</v>
       </c>
-      <c r="K153" s="14" t="s">
-        <v>485</v>
-      </c>
       <c r="L153" s="14" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M153" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N153" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O153" s="47">
         <v>4244</v>
@@ -8771,13 +8765,13 @@
     <row r="154" spans="1:15" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="16"/>
       <c r="B154" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="C154" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D154" s="14" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="E154" s="14" t="s">
         <v>6</v>
@@ -8789,13 +8783,13 @@
       <c r="H154" s="1"/>
       <c r="I154" s="16"/>
       <c r="J154" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="K154" s="14" t="s">
         <v>183</v>
       </c>
       <c r="L154" s="14" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M154" s="14" t="s">
         <v>6</v>
@@ -8805,10 +8799,10 @@
       </c>
       <c r="O154" s="16"/>
     </row>
-    <row r="155" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A155" s="17"/>
       <c r="B155" s="14" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="C155" s="17"/>
       <c r="D155" s="17"/>
@@ -8820,13 +8814,13 @@
       <c r="H155" s="1"/>
       <c r="I155" s="14"/>
       <c r="J155" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="K155" s="14" t="s">
         <v>405</v>
       </c>
       <c r="L155" s="14" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="M155" s="14" t="s">
         <v>6</v>
@@ -8839,7 +8833,7 @@
     <row r="156" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="16"/>
       <c r="B156" s="15" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="C156" s="15"/>
       <c r="D156" s="15"/>
@@ -8851,32 +8845,32 @@
       <c r="H156" s="1"/>
       <c r="I156" s="16"/>
       <c r="J156" s="14" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="K156" s="14" t="s">
         <v>318</v>
       </c>
       <c r="L156" s="14" t="s">
+        <v>487</v>
+      </c>
+      <c r="M156" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N156" s="14" t="s">
         <v>488</v>
-      </c>
-      <c r="M156" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N156" s="14" t="s">
-        <v>489</v>
       </c>
       <c r="O156" s="16"/>
     </row>
     <row r="157" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="16"/>
       <c r="B157" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C157" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D157" s="14" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E157" s="14" t="s">
         <v>6</v>
@@ -8888,19 +8882,19 @@
       <c r="H157" s="1"/>
       <c r="I157" s="16"/>
       <c r="J157" s="14" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="K157" s="14" t="s">
         <v>161</v>
       </c>
       <c r="L157" s="14" t="s">
+        <v>489</v>
+      </c>
+      <c r="M157" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N157" s="14" t="s">
         <v>490</v>
-      </c>
-      <c r="M157" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N157" s="14" t="s">
-        <v>491</v>
       </c>
       <c r="O157" s="16"/>
     </row>
@@ -8915,25 +8909,25 @@
       <c r="H158" s="1"/>
       <c r="I158" s="16"/>
       <c r="J158" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="K158" s="14" t="s">
         <v>187</v>
       </c>
       <c r="L158" s="14" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="M158" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N158" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O158" s="16"/>
     </row>
-    <row r="159" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A159" s="14" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="B159" s="14"/>
       <c r="C159" s="16"/>
@@ -8944,34 +8938,34 @@
       <c r="H159" s="1"/>
       <c r="I159" s="14"/>
       <c r="J159" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="K159" s="14" t="s">
         <v>59</v>
       </c>
       <c r="L159" s="14" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="M159" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N159" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O159" s="16"/>
     </row>
     <row r="160" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B160" s="14" t="s">
         <v>417</v>
-      </c>
-      <c r="B160" s="14" t="s">
-        <v>418</v>
       </c>
       <c r="C160" s="14" t="s">
         <v>246</v>
       </c>
       <c r="D160" s="14" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E160" s="14" t="s">
         <v>6</v>
@@ -8994,13 +8988,13 @@
     <row r="161" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="16"/>
       <c r="B161" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="C161" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="C161" s="14" t="s">
-        <v>420</v>
-      </c>
       <c r="D161" s="14" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E161" s="14" t="s">
         <v>5</v>
@@ -9011,10 +9005,10 @@
       <c r="G161" s="18"/>
       <c r="H161" s="1"/>
       <c r="I161" s="17" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="J161" s="17" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="K161" s="17" t="s">
         <v>75</v>
@@ -9026,20 +9020,20 @@
         <v>5</v>
       </c>
       <c r="N161" s="28" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="O161" s="17"/>
     </row>
     <row r="162" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="16"/>
       <c r="B162" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C162" s="14" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D162" s="14" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E162" s="14" t="s">
         <v>5</v>
@@ -9050,35 +9044,35 @@
       <c r="G162" s="16"/>
       <c r="H162" s="1"/>
       <c r="I162" s="17" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="J162" s="17" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="K162" s="17" t="s">
         <v>14</v>
       </c>
       <c r="L162" s="48" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="M162" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N162" s="28" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="O162" s="17"/>
     </row>
     <row r="163" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="16"/>
       <c r="B163" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C163" s="14" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="D163" s="14" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="E163" s="14" t="s">
         <v>5</v>
@@ -9090,32 +9084,32 @@
       <c r="H163" s="1"/>
       <c r="I163" s="17"/>
       <c r="J163" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="K163" s="17" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L163" s="17" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="M163" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N163" s="28" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="O163" s="17"/>
     </row>
-    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="14"/>
       <c r="B164" s="14" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C164" s="14" t="s">
+        <v>454</v>
+      </c>
+      <c r="D164" s="14" t="s">
         <v>455</v>
-      </c>
-      <c r="D164" s="14" t="s">
-        <v>456</v>
       </c>
       <c r="E164" s="14" t="s">
         <v>5</v>
@@ -9127,13 +9121,13 @@
       <c r="H164" s="1"/>
       <c r="I164" s="17"/>
       <c r="J164" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="K164" s="17" t="s">
         <v>318</v>
       </c>
       <c r="L164" s="17" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="M164" s="17" t="s">
         <v>5</v>
@@ -9143,16 +9137,16 @@
       </c>
       <c r="O164" s="17"/>
     </row>
-    <row r="165" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A165" s="14"/>
       <c r="B165" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C165" s="14" t="s">
         <v>278</v>
       </c>
       <c r="D165" s="14" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E165" s="14" t="s">
         <v>5</v>
@@ -9164,13 +9158,13 @@
       <c r="H165" s="1"/>
       <c r="I165" s="17"/>
       <c r="J165" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="K165" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L165" s="17" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="M165" s="17" t="s">
         <v>5</v>
@@ -9191,34 +9185,34 @@
       <c r="H166" s="1"/>
       <c r="I166" s="17"/>
       <c r="J166" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="K166" s="17" t="s">
         <v>14</v>
       </c>
       <c r="L166" s="17" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="M166" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N166" s="28" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="O166" s="17"/>
     </row>
     <row r="167" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B167" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="B167" s="14" t="s">
-        <v>426</v>
       </c>
       <c r="C167" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D167" s="14" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E167" s="14" t="s">
         <v>5</v>
@@ -9230,13 +9224,13 @@
       <c r="H167" s="1"/>
       <c r="I167" s="17"/>
       <c r="J167" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="K167" s="17" t="s">
         <v>59</v>
       </c>
       <c r="L167" s="17" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="M167" s="17" t="s">
         <v>5</v>
@@ -9246,9 +9240,9 @@
       </c>
       <c r="O167" s="17"/>
     </row>
-    <row r="168" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="14" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B168" s="14" t="s">
         <v>381</v>
@@ -9269,13 +9263,13 @@
       <c r="H168" s="1"/>
       <c r="I168" s="17"/>
       <c r="J168" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="K168" s="17" t="s">
         <v>15</v>
       </c>
       <c r="L168" s="17" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="M168" s="17" t="s">
         <v>6</v>
@@ -9288,56 +9282,56 @@
     <row r="169" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="16"/>
       <c r="B169" s="14" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C169" s="14"/>
       <c r="D169" s="14"/>
       <c r="E169" s="14"/>
       <c r="F169" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G169" s="14"/>
       <c r="H169" s="1"/>
       <c r="I169" s="17"/>
       <c r="J169" s="17" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="K169" s="17" t="s">
         <v>75</v>
       </c>
       <c r="L169" s="17" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M169" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N169" s="17" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O169" s="17"/>
     </row>
     <row r="170" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="16"/>
       <c r="B170" s="14" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C170" s="14"/>
       <c r="D170" s="14"/>
       <c r="E170" s="14"/>
       <c r="F170" s="19" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G170" s="14"/>
       <c r="H170" s="1"/>
       <c r="I170" s="40"/>
       <c r="J170" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="K170" s="40" t="s">
         <v>65</v>
       </c>
       <c r="L170" s="40" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="M170" s="40" t="s">
         <v>5</v>
@@ -9347,7 +9341,7 @@
       </c>
       <c r="O170" s="40"/>
     </row>
-    <row r="171" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2"/>
       <c r="B171" s="2"/>
       <c r="C171" s="2"/>
@@ -9358,13 +9352,13 @@
       <c r="H171" s="1"/>
       <c r="I171" s="17"/>
       <c r="J171" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="K171" s="17" t="s">
         <v>65</v>
       </c>
       <c r="L171" s="17" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="M171" s="17" t="s">
         <v>5</v>
@@ -9376,7 +9370,7 @@
     </row>
     <row r="172" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B172" s="14"/>
       <c r="C172" s="16"/>
@@ -9387,73 +9381,73 @@
       <c r="H172" s="1"/>
       <c r="I172" s="17"/>
       <c r="J172" s="17" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="K172" s="17"/>
       <c r="L172" s="17"/>
       <c r="M172" s="17"/>
       <c r="N172" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O172" s="17"/>
     </row>
     <row r="173" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="B173" s="14" t="s">
         <v>429</v>
-      </c>
-      <c r="B173" s="14" t="s">
-        <v>430</v>
       </c>
       <c r="C173" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D173" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F173" s="14" t="s">
         <v>430</v>
-      </c>
-      <c r="E173" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F173" s="14" t="s">
-        <v>431</v>
       </c>
       <c r="G173" s="16"/>
       <c r="H173" s="1"/>
       <c r="I173" s="17"/>
       <c r="J173" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="K173" s="17" t="s">
         <v>14</v>
       </c>
       <c r="L173" s="17" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="M173" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N173" s="28" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O173" s="17"/>
     </row>
-    <row r="174" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="B174" s="14" t="s">
         <v>432</v>
-      </c>
-      <c r="B174" s="14" t="s">
-        <v>433</v>
       </c>
       <c r="C174" s="14" t="s">
         <v>183</v>
       </c>
       <c r="D174" s="14" t="s">
+        <v>432</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F174" s="14" t="s">
         <v>433</v>
-      </c>
-      <c r="E174" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F174" s="14" t="s">
-        <v>434</v>
       </c>
       <c r="G174" s="17"/>
       <c r="H174" s="1"/>
@@ -9465,10 +9459,10 @@
       <c r="N174" s="1"/>
       <c r="O174" s="1"/>
     </row>
-    <row r="175" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A175" s="14"/>
       <c r="B175" s="14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C175" s="14" t="s">
         <v>161</v>
@@ -9487,7 +9481,7 @@
       </c>
       <c r="H175" s="1"/>
       <c r="I175" s="14" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="J175" s="14"/>
       <c r="K175" s="16"/>
@@ -9496,22 +9490,22 @@
       <c r="N175" s="16"/>
       <c r="O175" s="16"/>
     </row>
-    <row r="176" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="14"/>
       <c r="B176" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="C176" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D176" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="E176" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F176" s="19" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="G176" s="17"/>
       <c r="H176" s="1"/>
@@ -9537,73 +9531,73 @@
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="1:15" ht="10.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:15" ht="10.7" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="17"/>
       <c r="B177" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="C177" s="14" t="s">
         <v>405</v>
       </c>
       <c r="D177" s="14" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E177" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F177" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G177" s="17"/>
       <c r="H177" s="1"/>
       <c r="I177" s="14" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="J177" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="K177" s="14" t="s">
         <v>250</v>
       </c>
       <c r="L177" s="14" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="M177" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N177" s="19" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="O177" s="16"/>
     </row>
     <row r="178" spans="1:15" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="17"/>
       <c r="B178" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="C178" s="41" t="s">
         <v>185</v>
       </c>
       <c r="D178" s="41" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E178" s="41" t="s">
         <v>6</v>
       </c>
       <c r="F178" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G178" s="17"/>
       <c r="H178" s="1"/>
       <c r="I178" s="16"/>
       <c r="J178" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="K178" s="14" t="s">
         <v>396</v>
       </c>
       <c r="L178" s="14" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="M178" s="14" t="s">
         <v>5</v>
@@ -9616,44 +9610,44 @@
     <row r="179" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="16"/>
       <c r="B179" s="14" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="C179" s="14" t="s">
         <v>404</v>
       </c>
       <c r="D179" s="14" t="s">
+        <v>434</v>
+      </c>
+      <c r="E179" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F179" s="14" t="s">
         <v>435</v>
-      </c>
-      <c r="E179" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F179" s="14" t="s">
-        <v>436</v>
       </c>
       <c r="G179" s="16"/>
       <c r="H179" s="1"/>
       <c r="I179" s="16"/>
       <c r="J179" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="K179" s="14" t="s">
         <v>62</v>
       </c>
       <c r="L179" s="14" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="M179" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N179" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O179" s="16"/>
     </row>
     <row r="180" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="16"/>
       <c r="B180" s="14" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="C180" s="16"/>
       <c r="D180" s="16"/>
@@ -9665,26 +9659,26 @@
       <c r="H180" s="1"/>
       <c r="I180" s="14"/>
       <c r="J180" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="K180" s="14" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="L180" s="14" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="M180" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N180" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O180" s="16"/>
     </row>
     <row r="181" spans="1:15" ht="11.85" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="16"/>
       <c r="B181" s="14" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="C181" s="16"/>
       <c r="D181" s="16"/>
@@ -9696,19 +9690,19 @@
       <c r="H181" s="1"/>
       <c r="I181" s="14"/>
       <c r="J181" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="K181" s="14" t="s">
         <v>262</v>
       </c>
       <c r="L181" s="14" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="M181" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N181" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O181" s="14"/>
     </row>
@@ -9729,9 +9723,9 @@
       <c r="N182" s="3"/>
       <c r="O182" s="3"/>
     </row>
-    <row r="183" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B183" s="14"/>
       <c r="C183" s="16"/>
@@ -9750,16 +9744,16 @@
     </row>
     <row r="184" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="14" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="B184" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="C184" s="14" t="s">
         <v>208</v>
       </c>
       <c r="D184" s="14" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E184" s="14" t="s">
         <v>6</v>
@@ -9770,7 +9764,7 @@
       <c r="G184" s="16"/>
       <c r="H184" s="1"/>
       <c r="I184" s="14" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="J184" s="14"/>
       <c r="K184" s="14"/>
@@ -9781,16 +9775,16 @@
     </row>
     <row r="185" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="B185" s="14" t="s">
         <v>440</v>
-      </c>
-      <c r="B185" s="14" t="s">
-        <v>441</v>
       </c>
       <c r="C185" s="14" t="s">
         <v>69</v>
       </c>
       <c r="D185" s="14" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E185" s="14" t="s">
         <v>5</v>
@@ -9801,115 +9795,115 @@
       <c r="G185" s="16"/>
       <c r="H185" s="1"/>
       <c r="I185" s="14" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="J185" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="K185" s="14" t="s">
         <v>90</v>
       </c>
       <c r="L185" s="14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="M185" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N185" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O185" s="14"/>
     </row>
     <row r="186" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="14"/>
       <c r="B186" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="C186" s="14" t="s">
+        <v>458</v>
+      </c>
+      <c r="D186" s="14" t="s">
+        <v>511</v>
+      </c>
+      <c r="E186" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F186" s="19" t="s">
         <v>512</v>
-      </c>
-      <c r="C186" s="14" t="s">
-        <v>459</v>
-      </c>
-      <c r="D186" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="E186" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F186" s="19" t="s">
-        <v>513</v>
       </c>
       <c r="G186" s="16"/>
       <c r="H186" s="1"/>
       <c r="I186" s="14"/>
       <c r="J186" s="14" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="K186" s="14" t="s">
         <v>95</v>
       </c>
       <c r="L186" s="14" t="s">
+        <v>579</v>
+      </c>
+      <c r="M186" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N186" s="14" t="s">
         <v>580</v>
-      </c>
-      <c r="M186" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N186" s="14" t="s">
-        <v>581</v>
       </c>
       <c r="O186" s="16"/>
     </row>
     <row r="187" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="14"/>
       <c r="B187" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="C187" s="14" t="s">
         <v>230</v>
       </c>
       <c r="D187" s="14" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="E187" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F187" s="19" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G187" s="16"/>
       <c r="H187" s="1"/>
       <c r="I187" s="16"/>
       <c r="J187" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="K187" s="14" t="s">
         <v>98</v>
       </c>
       <c r="L187" s="14" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="M187" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N187" s="14" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O187" s="14"/>
     </row>
     <row r="188" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
       <c r="B188" s="14" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="C188" s="15" t="s">
         <v>222</v>
       </c>
       <c r="D188" s="14" t="s">
+        <v>513</v>
+      </c>
+      <c r="E188" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F188" s="19" t="s">
         <v>514</v>
-      </c>
-      <c r="E188" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F188" s="19" t="s">
-        <v>515</v>
       </c>
       <c r="G188" s="14"/>
       <c r="H188" s="1"/>
@@ -9921,7 +9915,7 @@
       <c r="N188" s="2"/>
       <c r="O188" s="2"/>
     </row>
-    <row r="189" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A189" s="6"/>
       <c r="B189" s="6"/>
       <c r="C189" s="6"/>
@@ -9931,7 +9925,7 @@
       <c r="G189" s="6"/>
       <c r="H189" s="1"/>
       <c r="I189" s="14" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="J189" s="14"/>
       <c r="K189" s="16"/>
@@ -9942,7 +9936,7 @@
     </row>
     <row r="190" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="14" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B190" s="14"/>
       <c r="C190" s="14"/>
@@ -9952,10 +9946,10 @@
       <c r="G190" s="15"/>
       <c r="H190" s="1"/>
       <c r="I190" s="14" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="J190" s="14" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="K190" s="14" t="s">
         <v>65</v>
@@ -9967,7 +9961,7 @@
         <v>5</v>
       </c>
       <c r="N190" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O190" s="18">
         <v>4461</v>
@@ -9998,19 +9992,19 @@
       <c r="H191" s="1"/>
       <c r="I191" s="16"/>
       <c r="J191" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="K191" s="14" t="s">
         <v>75</v>
       </c>
       <c r="L191" s="14" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="M191" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N191" s="14" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O191" s="18">
         <v>4398</v>
@@ -10018,34 +10012,34 @@
     </row>
     <row r="192" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="14" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B192" s="14" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="C192" s="14" t="s">
         <v>75</v>
       </c>
       <c r="D192" s="14" t="s">
+        <v>519</v>
+      </c>
+      <c r="E192" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F192" s="14" t="s">
         <v>520</v>
-      </c>
-      <c r="E192" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F192" s="14" t="s">
-        <v>521</v>
       </c>
       <c r="G192" s="16"/>
       <c r="H192" s="1"/>
       <c r="I192" s="16"/>
       <c r="J192" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="K192" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L192" s="14" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="M192" s="14" t="s">
         <v>5</v>
@@ -10057,34 +10051,34 @@
     </row>
     <row r="193" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="14" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B193" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C193" s="14" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="D193" s="14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="E193" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F193" s="19" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="G193" s="16"/>
       <c r="H193" s="1"/>
       <c r="I193" s="16"/>
       <c r="J193" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="K193" s="14" t="s">
         <v>71</v>
       </c>
       <c r="L193" s="14" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M193" s="14" t="s">
         <v>5</v>
@@ -10097,87 +10091,87 @@
     <row r="194" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="20"/>
       <c r="B194" s="14" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="C194" s="14" t="s">
         <v>28</v>
       </c>
       <c r="D194" s="14" t="s">
+        <v>522</v>
+      </c>
+      <c r="E194" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F194" s="14" t="s">
         <v>523</v>
-      </c>
-      <c r="E194" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F194" s="14" t="s">
-        <v>524</v>
       </c>
       <c r="G194" s="16"/>
       <c r="H194" s="1"/>
       <c r="I194" s="16"/>
       <c r="J194" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="K194" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L194" s="14" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="M194" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N194" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O194" s="16"/>
     </row>
-    <row r="195" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="16"/>
       <c r="B195" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C195" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D195" s="14" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="E195" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F195" s="14" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G195" s="16"/>
       <c r="H195" s="1"/>
       <c r="I195" s="17"/>
       <c r="J195" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K195" s="14" t="s">
         <v>59</v>
       </c>
       <c r="L195" s="14" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="M195" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N195" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O195" s="16"/>
     </row>
     <row r="196" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="16"/>
       <c r="B196" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="C196" s="14" t="s">
         <v>278</v>
       </c>
       <c r="D196" s="14" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="E196" s="14" t="s">
         <v>6</v>
@@ -10189,32 +10183,32 @@
       <c r="H196" s="1"/>
       <c r="I196" s="16"/>
       <c r="J196" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K196" s="14" t="s">
         <v>15</v>
       </c>
       <c r="L196" s="14" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="M196" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N196" s="19" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O196" s="17"/>
     </row>
-    <row r="197" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="14"/>
       <c r="B197" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="C197" s="14" t="s">
         <v>100</v>
       </c>
       <c r="D197" s="14" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="E197" s="14" t="s">
         <v>6</v>
@@ -10226,32 +10220,32 @@
       <c r="H197" s="1"/>
       <c r="I197" s="16"/>
       <c r="J197" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="K197" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L197" s="14" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="M197" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N197" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="O197" s="16"/>
     </row>
-    <row r="198" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="14"/>
       <c r="B198" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="C198" s="14" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="D198" s="14" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="E198" s="14" t="s">
         <v>5</v>
@@ -10272,13 +10266,13 @@
     <row r="199" spans="1:15" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="16"/>
       <c r="B199" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="C199" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D199" s="14" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="E199" s="14" t="s">
         <v>6</v>
@@ -10296,16 +10290,16 @@
       <c r="N199" s="4"/>
       <c r="O199" s="4"/>
     </row>
-    <row r="200" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="17"/>
       <c r="B200" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="C200" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D200" s="14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="E200" s="14" t="s">
         <v>5</v>
@@ -10316,7 +10310,7 @@
       <c r="G200" s="17"/>
       <c r="H200" s="1"/>
       <c r="I200" s="38" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="J200" s="17"/>
       <c r="K200" s="17"/>
@@ -10325,71 +10319,71 @@
       <c r="N200" s="17"/>
       <c r="O200" s="17"/>
     </row>
-    <row r="201" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:15" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="14"/>
       <c r="B201" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="C201" s="14" t="s">
         <v>102</v>
       </c>
       <c r="D201" s="14" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="E201" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F201" s="14" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G201" s="14"/>
       <c r="H201" s="1"/>
       <c r="I201" s="17" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="J201" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="K201" s="17" t="s">
         <v>71</v>
       </c>
       <c r="L201" s="17" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="M201" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N201" s="28" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O201" s="17">
         <v>4830</v>
       </c>
     </row>
-    <row r="202" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A202" s="16"/>
       <c r="B202" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C202" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D202" s="50" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="E202" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F202" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G202" s="16"/>
       <c r="H202" s="1"/>
       <c r="I202" s="17" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="J202" s="17" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="K202" s="17" t="s">
         <v>158</v>
@@ -10405,53 +10399,53 @@
       </c>
       <c r="O202" s="17"/>
     </row>
-    <row r="203" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A203" s="14"/>
       <c r="B203" s="14" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="C203" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D203" s="14" t="s">
+        <v>532</v>
+      </c>
+      <c r="E203" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F203" s="14" t="s">
         <v>533</v>
-      </c>
-      <c r="E203" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F203" s="14" t="s">
-        <v>534</v>
       </c>
       <c r="G203" s="14"/>
       <c r="H203" s="1"/>
       <c r="I203" s="38"/>
       <c r="J203" s="17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="K203" s="17" t="s">
         <v>77</v>
       </c>
       <c r="L203" s="17" t="s">
+        <v>590</v>
+      </c>
+      <c r="M203" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="N203" s="17" t="s">
         <v>591</v>
-      </c>
-      <c r="M203" s="17" t="s">
-        <v>5</v>
-      </c>
-      <c r="N203" s="17" t="s">
-        <v>592</v>
       </c>
       <c r="O203" s="17"/>
     </row>
     <row r="204" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="16"/>
       <c r="B204" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="C204" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D204" s="14" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="E204" s="14" t="s">
         <v>6</v>
@@ -10462,33 +10456,33 @@
       <c r="G204" s="16"/>
       <c r="H204" s="1"/>
       <c r="I204" s="38" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J204" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K204" s="17"/>
       <c r="L204" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="M204" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N204" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O204" s="17"/>
     </row>
     <row r="205" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="16"/>
       <c r="B205" s="14" t="s">
+        <v>535</v>
+      </c>
+      <c r="C205" s="14" t="s">
         <v>536</v>
       </c>
-      <c r="C205" s="14" t="s">
-        <v>537</v>
-      </c>
       <c r="D205" s="14" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="E205" s="14" t="s">
         <v>5</v>
@@ -10500,11 +10494,11 @@
       <c r="H205" s="1"/>
       <c r="I205" s="38"/>
       <c r="J205" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="K205" s="17"/>
       <c r="L205" s="17" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="M205" s="17" t="s">
         <v>6</v>
@@ -10514,16 +10508,16 @@
       </c>
       <c r="O205" s="17"/>
     </row>
-    <row r="206" spans="1:15" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:15" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="17"/>
       <c r="B206" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="C206" s="14" t="s">
         <v>124</v>
       </c>
       <c r="D206" s="14" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E206" s="14" t="s">
         <v>6</v>
@@ -10535,11 +10529,11 @@
       <c r="H206" s="1"/>
       <c r="I206" s="26"/>
       <c r="J206" s="51" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="K206" s="26"/>
       <c r="L206" s="51" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="M206" s="51" t="s">
         <v>5</v>
@@ -10549,10 +10543,10 @@
       </c>
       <c r="O206" s="26"/>
     </row>
-    <row r="207" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A207" s="16"/>
       <c r="B207" s="14" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="C207" s="16"/>
       <c r="D207" s="16"/>
@@ -10564,24 +10558,24 @@
       <c r="H207" s="1"/>
       <c r="I207" s="26"/>
       <c r="J207" s="51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="K207" s="26"/>
       <c r="L207" s="51" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="M207" s="51" t="s">
         <v>6</v>
       </c>
       <c r="N207" s="52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O207" s="26"/>
     </row>
-    <row r="208" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A208" s="16"/>
       <c r="B208" s="14" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C208" s="16"/>
       <c r="D208" s="16"/>
@@ -10593,21 +10587,21 @@
       <c r="H208" s="1"/>
       <c r="I208" s="26"/>
       <c r="J208" s="51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="K208" s="26"/>
       <c r="L208" s="51" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="M208" s="51" t="s">
         <v>6</v>
       </c>
       <c r="N208" s="52" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="O208" s="26"/>
     </row>
-    <row r="209" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -10618,11 +10612,11 @@
       <c r="H209" s="1"/>
       <c r="I209" s="26"/>
       <c r="J209" s="51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="K209" s="26"/>
       <c r="L209" s="51" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="M209" s="51" t="s">
         <v>6</v>
@@ -10634,28 +10628,28 @@
     </row>
     <row r="210" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="14" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B210" s="16" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C210" s="16" t="s">
         <v>199</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="E210" s="16" t="s">
         <v>6</v>
       </c>
       <c r="F210" s="22" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="G210" s="16"/>
       <c r="H210" s="1"/>
       <c r="I210" s="26"/>
       <c r="J210" s="51" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="K210" s="26"/>
       <c r="L210" s="51"/>
@@ -10668,29 +10662,29 @@
     <row r="211" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="16"/>
       <c r="B211" s="16" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C211" s="16" t="s">
         <v>196</v>
       </c>
       <c r="D211" s="16" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="E211" s="16" t="s">
         <v>5</v>
       </c>
       <c r="F211" s="22" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="G211" s="16"/>
       <c r="H211" s="1"/>
       <c r="I211" s="26"/>
       <c r="J211" s="51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="K211" s="26"/>
       <c r="L211" s="51" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="M211" s="51" t="s">
         <v>5</v>
@@ -10703,7 +10697,7 @@
     <row r="212" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="20"/>
       <c r="B212" s="14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="C212" s="14" t="s">
         <v>284</v>
@@ -10721,7 +10715,7 @@
       <c r="H212" s="1"/>
       <c r="I212" s="26"/>
       <c r="J212" s="51" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="K212" s="26"/>
       <c r="L212" s="51"/>
@@ -10731,16 +10725,16 @@
       </c>
       <c r="O212" s="26"/>
     </row>
-    <row r="213" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="17"/>
       <c r="B213" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="C213" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D213" s="14" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="E213" s="14" t="s">
         <v>5</v>
@@ -10752,11 +10746,11 @@
       <c r="H213" s="1"/>
       <c r="I213" s="26"/>
       <c r="J213" s="51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="K213" s="26"/>
       <c r="L213" s="51" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="M213" s="51" t="s">
         <v>5</v>
@@ -10766,16 +10760,16 @@
       </c>
       <c r="O213" s="26"/>
     </row>
-    <row r="214" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="17"/>
       <c r="B214" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="C214" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D214" s="14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="E214" s="14" t="s">
         <v>5</v>
@@ -10787,13 +10781,13 @@
       <c r="H214" s="1"/>
       <c r="I214" s="17"/>
       <c r="J214" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="K214" s="17" t="s">
         <v>158</v>
       </c>
       <c r="L214" s="17" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="M214" s="17" t="s">
         <v>5</v>
@@ -10806,13 +10800,13 @@
     <row r="215" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="16"/>
       <c r="B215" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="C215" s="14" t="s">
         <v>115</v>
       </c>
       <c r="D215" s="14" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E215" s="14" t="s">
         <v>5</v>
@@ -10826,75 +10820,75 @@
       <c r="H215" s="1"/>
       <c r="I215" s="17"/>
       <c r="J215" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="K215" s="17" t="s">
         <v>75</v>
       </c>
       <c r="L215" s="17" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="M215" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N215" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O215" s="17"/>
     </row>
-    <row r="216" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A216" s="16"/>
       <c r="B216" s="14" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="C216" s="14" t="s">
         <v>285</v>
       </c>
       <c r="D216" s="14" t="s">
+        <v>544</v>
+      </c>
+      <c r="E216" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="F216" s="14" t="s">
         <v>545</v>
-      </c>
-      <c r="E216" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F216" s="14" t="s">
-        <v>546</v>
       </c>
       <c r="G216" s="16"/>
       <c r="H216" s="1"/>
       <c r="I216" s="17"/>
       <c r="J216" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="K216" s="17" t="s">
         <v>7</v>
       </c>
       <c r="L216" s="17" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M216" s="17" t="s">
         <v>5</v>
       </c>
       <c r="N216" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O216" s="17"/>
     </row>
-    <row r="217" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="17"/>
       <c r="B217" s="14" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="C217" s="14" t="s">
         <v>203</v>
       </c>
       <c r="D217" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="E217" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="F217" s="14" t="s">
         <v>547</v>
-      </c>
-      <c r="E217" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="F217" s="14" t="s">
-        <v>548</v>
       </c>
       <c r="G217" s="18">
         <v>4488</v>
@@ -10902,32 +10896,32 @@
       <c r="H217" s="3"/>
       <c r="I217" s="17"/>
       <c r="J217" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="K217" s="17" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L217" s="17" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M217" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N217" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O217" s="17"/>
     </row>
-    <row r="218" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="16"/>
       <c r="B218" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="C218" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D218" s="14" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E218" s="14" t="s">
         <v>6</v>
@@ -10939,32 +10933,32 @@
       <c r="H218" s="2"/>
       <c r="I218" s="17"/>
       <c r="J218" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="K218" s="17" t="s">
         <v>26</v>
       </c>
       <c r="L218" s="17" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="M218" s="17" t="s">
         <v>6</v>
       </c>
       <c r="N218" s="17" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="O218" s="17"/>
     </row>
-    <row r="219" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="17"/>
       <c r="B219" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="C219" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D219" s="14" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E219" s="14" t="s">
         <v>5</v>
@@ -10982,16 +10976,16 @@
       <c r="N219" s="6"/>
       <c r="O219" s="2"/>
     </row>
-    <row r="220" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A220" s="14"/>
       <c r="B220" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="C220" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D220" s="14" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="E220" s="14" t="s">
         <v>6</v>
@@ -11012,60 +11006,60 @@
     <row r="221" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="16"/>
       <c r="B221" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="C221" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D221" s="14" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="E221" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F221" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G221" s="16"/>
       <c r="H221" s="6"/>
       <c r="I221" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="J221" s="14" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="K221" s="14" t="s">
         <v>161</v>
       </c>
       <c r="L221" s="14" t="s">
+        <v>617</v>
+      </c>
+      <c r="M221" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N221" s="19" t="s">
         <v>618</v>
-      </c>
-      <c r="M221" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N221" s="19" t="s">
-        <v>619</v>
       </c>
       <c r="O221" s="14">
         <v>4367</v>
       </c>
     </row>
-    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="14"/>
       <c r="B222" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="C222" s="14" t="s">
         <v>196</v>
       </c>
       <c r="D222" s="14" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="E222" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F222" s="14" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G222" s="14"/>
       <c r="H222" s="1"/>
@@ -11092,13 +11086,13 @@
     <row r="223" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="14"/>
       <c r="B223" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="C223" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D223" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="E223" s="14" t="s">
         <v>6</v>
@@ -11110,40 +11104,40 @@
       <c r="H223" s="2"/>
       <c r="I223" s="17"/>
       <c r="J223" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="K223" s="14" t="s">
+        <v>619</v>
+      </c>
+      <c r="L223" s="14" t="s">
+        <v>611</v>
+      </c>
+      <c r="M223" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N223" s="14" t="s">
         <v>612</v>
-      </c>
-      <c r="K223" s="14" t="s">
-        <v>620</v>
-      </c>
-      <c r="L223" s="14" t="s">
-        <v>612</v>
-      </c>
-      <c r="M223" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N223" s="14" t="s">
-        <v>613</v>
       </c>
       <c r="O223" s="14">
         <v>4727</v>
       </c>
     </row>
-    <row r="224" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="17"/>
       <c r="B224" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="C224" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D224" s="14" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="E224" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F224" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G224" s="17"/>
       <c r="H224" s="3"/>
@@ -11152,29 +11146,29 @@
         <v>402</v>
       </c>
       <c r="K224" s="14" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="L224" s="14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="M224" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N224" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O224" s="17"/>
     </row>
-    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="14"/>
       <c r="B225" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="C225" s="14" t="s">
         <v>285</v>
       </c>
       <c r="D225" s="14" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="E225" s="14" t="s">
         <v>5</v>
@@ -11195,24 +11189,24 @@
     <row r="226" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="14"/>
       <c r="B226" s="50" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C226" s="14" t="s">
         <v>220</v>
       </c>
       <c r="D226" s="50" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E226" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F226" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G226" s="14"/>
       <c r="H226" s="3"/>
       <c r="I226" s="14" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="J226" s="16"/>
       <c r="K226" s="16"/>
@@ -11224,46 +11218,46 @@
     <row r="227" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="16"/>
       <c r="B227" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C227" s="14" t="s">
         <v>194</v>
       </c>
       <c r="D227" s="14" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E227" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F227" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G227" s="16"/>
       <c r="H227" s="3"/>
       <c r="I227" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="J227" s="14" t="s">
+        <v>621</v>
+      </c>
+      <c r="K227" s="14" t="s">
         <v>622</v>
       </c>
-      <c r="K227" s="14" t="s">
-        <v>623</v>
-      </c>
       <c r="L227" s="14" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="M227" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N227" s="19" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="O227" s="17"/>
     </row>
-    <row r="228" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A228" s="17"/>
       <c r="B228" s="14" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C228" s="17"/>
       <c r="D228" s="17"/>
@@ -11275,28 +11269,28 @@
       <c r="H228" s="3"/>
       <c r="I228" s="17"/>
       <c r="J228" s="14" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="K228" s="14" t="s">
         <v>124</v>
       </c>
       <c r="L228" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M228" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N228" s="19" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="O228" s="17">
         <v>4588</v>
       </c>
     </row>
-    <row r="229" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A229" s="16"/>
       <c r="B229" s="14" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="C229" s="16"/>
       <c r="D229" s="16"/>
@@ -11314,7 +11308,7 @@
       <c r="N229" s="6"/>
       <c r="O229" s="6"/>
     </row>
-    <row r="230" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -11326,9 +11320,9 @@
       <c r="I230" s="2"/>
       <c r="O230" s="3"/>
     </row>
-    <row r="231" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A231" s="15" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B231" s="14"/>
       <c r="C231" s="14"/>
@@ -11345,31 +11339,31 @@
       <c r="N231" s="2"/>
       <c r="O231" s="2"/>
     </row>
-    <row r="232" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A232" s="14" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B232" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="C232" s="14" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="D232" s="14" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="E232" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F232" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G232" s="18">
         <v>4140</v>
       </c>
       <c r="H232" s="3"/>
       <c r="I232" s="14" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="J232" s="14"/>
       <c r="K232" s="16"/>
@@ -11378,36 +11372,36 @@
       <c r="N232" s="16"/>
       <c r="O232" s="16"/>
     </row>
-    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="20"/>
       <c r="B233" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="C233" s="14" t="s">
         <v>51</v>
       </c>
       <c r="D233" s="14" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="E233" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F233" s="14" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G233" s="14"/>
       <c r="H233" s="3"/>
       <c r="I233" s="14" t="s">
+        <v>694</v>
+      </c>
+      <c r="J233" s="14" t="s">
         <v>695</v>
-      </c>
-      <c r="J233" s="14" t="s">
-        <v>696</v>
       </c>
       <c r="K233" s="14" t="s">
         <v>231</v>
       </c>
       <c r="L233" s="14" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="M233" s="14" t="s">
         <v>5</v>
@@ -11417,114 +11411,114 @@
       </c>
       <c r="O233" s="14"/>
     </row>
-    <row r="234" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A234" s="17"/>
       <c r="B234" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C234" s="14" t="s">
         <v>318</v>
       </c>
       <c r="D234" s="14" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="E234" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F234" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G234" s="14"/>
       <c r="H234" s="3"/>
       <c r="I234" s="14"/>
       <c r="J234" s="14" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
       <c r="K234" s="14" t="s">
         <v>17</v>
       </c>
       <c r="L234" s="14" t="s">
+        <v>872</v>
+      </c>
+      <c r="M234" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="N234" s="19" t="s">
         <v>873</v>
       </c>
-      <c r="M234" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="N234" s="19" t="s">
-        <v>874</v>
-      </c>
       <c r="O234" s="14"/>
     </row>
-    <row r="235" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:15" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="17"/>
       <c r="B235" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C235" s="14" t="s">
         <v>178</v>
       </c>
       <c r="D235" s="14" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="E235" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F235" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G235" s="14"/>
       <c r="H235" s="3"/>
       <c r="I235" s="14"/>
       <c r="J235" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="K235" s="14" t="s">
         <v>222</v>
       </c>
       <c r="L235" s="14" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="M235" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N235" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O235" s="17"/>
     </row>
     <row r="236" spans="1:15" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="17"/>
       <c r="B236" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="C236" s="17" t="s">
         <v>161</v>
       </c>
       <c r="D236" s="17" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="E236" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F236" s="28" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G236" s="14"/>
       <c r="H236" s="3"/>
       <c r="I236" s="16"/>
       <c r="J236" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="K236" s="41" t="s">
         <v>174</v>
       </c>
       <c r="L236" s="41" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="M236" s="41" t="s">
         <v>5</v>
       </c>
       <c r="N236" s="42" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O236" s="16"/>
     </row>
@@ -11532,25 +11526,25 @@
       <c r="H237" s="3"/>
       <c r="I237" s="16"/>
       <c r="J237" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="K237" s="14" t="s">
         <v>69</v>
       </c>
       <c r="L237" s="14" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="M237" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N237" s="32" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O237" s="41"/>
     </row>
     <row r="238" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="14" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -11561,34 +11555,34 @@
       <c r="H238" s="3"/>
       <c r="I238" s="16"/>
       <c r="J238" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="K238" s="14" t="s">
         <v>230</v>
       </c>
       <c r="L238" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M238" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N238" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O238" s="16"/>
     </row>
     <row r="239" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B239" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="C239" s="14" t="s">
         <v>192</v>
       </c>
       <c r="D239" s="14" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="E239" s="14" t="s">
         <v>6</v>
@@ -11600,32 +11594,32 @@
       <c r="H239" s="3"/>
       <c r="I239" s="16"/>
       <c r="J239" s="14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="K239" s="14" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="L239" s="14" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="M239" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N239" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O239" s="16"/>
     </row>
     <row r="240" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="20"/>
       <c r="B240" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="C240" s="14" t="s">
         <v>196</v>
       </c>
       <c r="D240" s="14" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="E240" s="14" t="s">
         <v>6</v>
@@ -11637,32 +11631,32 @@
       <c r="H240" s="3"/>
       <c r="I240" s="16"/>
       <c r="J240" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="K240" s="14" t="s">
         <v>225</v>
       </c>
       <c r="L240" s="14" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="M240" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N240" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O240" s="16"/>
     </row>
-    <row r="241" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="16"/>
       <c r="B241" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="C241" s="14" t="s">
         <v>118</v>
       </c>
       <c r="D241" s="14" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="E241" s="14" t="s">
         <v>5</v>
@@ -11674,23 +11668,23 @@
       <c r="H241" s="2"/>
       <c r="I241" s="16"/>
       <c r="J241" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="K241" s="14" t="s">
         <v>208</v>
       </c>
       <c r="L241" s="14" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="M241" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N241" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O241" s="16"/>
     </row>
-    <row r="242" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A242" s="17"/>
       <c r="B242" s="17" t="s">
         <v>23</v>
@@ -11711,7 +11705,7 @@
       <c r="N242" s="2"/>
       <c r="O242" s="2"/>
     </row>
-    <row r="243" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -11721,24 +11715,24 @@
       <c r="G243" s="1"/>
       <c r="H243" s="3"/>
       <c r="I243" s="14" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="J243" s="16" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="K243" s="16"/>
       <c r="L243" s="16" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
       <c r="M243" s="16" t="s">
         <v>6</v>
       </c>
       <c r="N243" s="22" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
       <c r="O243" s="16"/>
     </row>
-    <row r="244" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
       <c r="B244" s="3"/>
       <c r="C244" s="3"/>
@@ -11748,28 +11742,28 @@
       <c r="G244" s="2"/>
       <c r="H244" s="3"/>
       <c r="I244" s="14" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="J244" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="K244" s="16" t="s">
         <v>161</v>
       </c>
       <c r="L244" s="14" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
       <c r="M244" s="16" t="s">
         <v>5</v>
       </c>
       <c r="N244" s="22" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
       <c r="O244" s="16"/>
     </row>
-    <row r="245" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="14" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -11780,25 +11774,25 @@
       <c r="H245" s="3"/>
       <c r="I245" s="20"/>
       <c r="J245" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="K245" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L245" s="14" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="M245" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N245" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O245" s="18">
         <v>4972</v>
       </c>
     </row>
-    <row r="246" spans="1:15" ht="13.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:15" ht="13.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="14" t="s">
         <v>40</v>
       </c>
@@ -11823,34 +11817,34 @@
       <c r="H246" s="3"/>
       <c r="I246" s="20"/>
       <c r="J246" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="K246" s="14" t="s">
         <v>318</v>
       </c>
       <c r="L246" s="14" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="M246" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N246" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O246" s="17"/>
     </row>
-    <row r="247" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="14" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B247" s="57" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C247" s="57" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D247" s="57" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="E247" s="57" t="s">
         <v>6</v>
@@ -11862,13 +11856,13 @@
       <c r="H247" s="3"/>
       <c r="I247" s="17"/>
       <c r="J247" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="K247" s="14" t="s">
         <v>183</v>
       </c>
       <c r="L247" s="14" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="M247" s="14" t="s">
         <v>5</v>
@@ -11880,16 +11874,16 @@
     </row>
     <row r="248" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="14" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="B248" s="57" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="C248" s="57" t="s">
         <v>26</v>
       </c>
       <c r="D248" s="57" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="E248" s="57" t="s">
         <v>5</v>
@@ -11901,13 +11895,13 @@
       <c r="H248" s="3"/>
       <c r="I248" s="16"/>
       <c r="J248" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="K248" s="14" t="s">
         <v>404</v>
       </c>
       <c r="L248" s="14" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="M248" s="14" t="s">
         <v>5</v>
@@ -11917,16 +11911,16 @@
       </c>
       <c r="O248" s="16"/>
     </row>
-    <row r="249" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A249" s="33"/>
       <c r="B249" s="57" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C249" s="57" t="s">
         <v>14</v>
       </c>
       <c r="D249" s="57" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="E249" s="57" t="s">
         <v>6</v>
@@ -11938,13 +11932,13 @@
       <c r="H249" s="3"/>
       <c r="I249" s="14"/>
       <c r="J249" s="14" t="s">
+        <v>704</v>
+      </c>
+      <c r="K249" s="14" t="s">
         <v>705</v>
       </c>
-      <c r="K249" s="14" t="s">
-        <v>706</v>
-      </c>
       <c r="L249" s="14" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="M249" s="14" t="s">
         <v>5</v>
@@ -11957,50 +11951,50 @@
     <row r="250" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="16"/>
       <c r="B250" s="50" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C250" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D250" s="50" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="E250" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F250" s="14" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="G250" s="16"/>
       <c r="H250" s="3"/>
       <c r="I250" s="16"/>
       <c r="J250" s="14" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="K250" s="16"/>
       <c r="L250" s="16"/>
       <c r="M250" s="16"/>
       <c r="N250" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="O250" s="16"/>
     </row>
-    <row r="251" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A251" s="16"/>
       <c r="B251" s="50" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C251" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D251" s="50" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E251" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F251" s="14" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G251" s="17"/>
       <c r="H251" s="3"/>
@@ -12012,16 +12006,16 @@
       <c r="N251" s="14"/>
       <c r="O251" s="16"/>
     </row>
-    <row r="252" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A252" s="16"/>
       <c r="B252" s="50" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C252" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D252" s="50" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="E252" s="14" t="s">
         <v>5</v>
@@ -12039,16 +12033,16 @@
       <c r="N252" s="2"/>
       <c r="O252" s="2"/>
     </row>
-    <row r="253" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A253" s="16"/>
       <c r="B253" s="50" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C253" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D253" s="50" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E253" s="14" t="s">
         <v>5</v>
@@ -12059,35 +12053,35 @@
       <c r="G253" s="16"/>
       <c r="H253" s="3"/>
       <c r="I253" s="14" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J253" s="14" t="s">
+        <v>708</v>
+      </c>
+      <c r="K253" s="14" t="s">
         <v>709</v>
       </c>
-      <c r="K253" s="14" t="s">
-        <v>710</v>
-      </c>
       <c r="L253" s="14" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="M253" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N253" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="O253" s="14"/>
     </row>
-    <row r="254" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A254" s="16"/>
       <c r="B254" s="50" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C254" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D254" s="50" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="E254" s="14" t="s">
         <v>6</v>
@@ -12109,16 +12103,16 @@
       <c r="N254" s="17"/>
       <c r="O254" s="17"/>
     </row>
-    <row r="255" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A255" s="14"/>
       <c r="B255" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C255" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D255" s="14" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="E255" s="14" t="s">
         <v>5</v>
@@ -12130,38 +12124,38 @@
       <c r="H255" s="3"/>
       <c r="I255" s="16"/>
       <c r="J255" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="K255" s="14" t="s">
         <v>284</v>
       </c>
       <c r="L255" s="14" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="M255" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N255" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O255" s="16"/>
     </row>
-    <row r="256" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="17"/>
       <c r="B256" s="50" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C256" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D256" s="50" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="E256" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F256" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G256" s="18">
         <v>4014</v>
@@ -12169,110 +12163,110 @@
       <c r="H256" s="3"/>
       <c r="I256" s="16"/>
       <c r="J256" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="K256" s="14" t="s">
         <v>118</v>
       </c>
       <c r="L256" s="14" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="M256" s="16"/>
       <c r="N256" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O256" s="16"/>
     </row>
-    <row r="257" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A257" s="41"/>
       <c r="B257" s="50" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C257" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D257" s="50" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="E257" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F257" s="14" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G257" s="14"/>
       <c r="H257" s="3"/>
       <c r="I257" s="16"/>
       <c r="J257" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="K257" s="14" t="s">
         <v>285</v>
       </c>
       <c r="L257" s="14" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M257" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N257" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O257" s="16"/>
     </row>
     <row r="258" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="16"/>
       <c r="B258" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C258" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D258" s="14" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="E258" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F258" s="34" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G258" s="17"/>
       <c r="H258" s="3"/>
       <c r="I258" s="16"/>
       <c r="J258" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="K258" s="14" t="s">
         <v>196</v>
       </c>
       <c r="L258" s="14" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="M258" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N258" s="19" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O258" s="16"/>
     </row>
     <row r="259" spans="1:15" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="16"/>
       <c r="B259" s="41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C259" s="41" t="s">
         <v>75</v>
       </c>
       <c r="D259" s="41" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E259" s="41" t="s">
         <v>6</v>
       </c>
       <c r="F259" s="42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G259" s="41"/>
       <c r="H259" s="3"/>
@@ -12284,27 +12278,27 @@
       <c r="N259" s="2"/>
       <c r="O259" s="2"/>
     </row>
-    <row r="260" spans="1:15" ht="12.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:15" ht="12.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="16"/>
       <c r="B260" s="50" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C260" s="14" t="s">
         <v>23</v>
       </c>
       <c r="D260" s="50" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="E260" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F260" s="14" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G260" s="16"/>
       <c r="H260" s="12"/>
       <c r="I260" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J260" s="16"/>
       <c r="K260" s="16"/>
@@ -12316,33 +12310,33 @@
     <row r="261" spans="1:15" ht="13.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="16"/>
       <c r="B261" s="50" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C261" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D261" s="50" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="E261" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F261" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G261" s="16"/>
       <c r="H261" s="3"/>
       <c r="I261" s="14" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="J261" s="54" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="K261" s="54" t="s">
         <v>404</v>
       </c>
       <c r="L261" s="54" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
       <c r="M261" s="54" t="s">
         <v>6</v>
@@ -12352,110 +12346,110 @@
       </c>
       <c r="O261" s="20"/>
     </row>
-    <row r="262" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A262" s="16"/>
       <c r="B262" s="50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C262" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D262" s="50" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="E262" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F262" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G262" s="16"/>
       <c r="H262" s="2"/>
       <c r="I262" s="14"/>
       <c r="J262" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="K262" s="14" t="s">
+        <v>558</v>
+      </c>
+      <c r="L262" s="14" t="s">
+        <v>881</v>
+      </c>
+      <c r="M262" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N262" s="19" t="s">
         <v>882</v>
-      </c>
-      <c r="K262" s="14" t="s">
-        <v>559</v>
-      </c>
-      <c r="L262" s="14" t="s">
-        <v>882</v>
-      </c>
-      <c r="M262" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N262" s="19" t="s">
-        <v>883</v>
       </c>
       <c r="O262" s="17">
         <v>4807</v>
       </c>
     </row>
-    <row r="263" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A263" s="16"/>
       <c r="B263" s="50" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C263" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D263" s="50" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="E263" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F263" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G263" s="16"/>
       <c r="H263" s="3"/>
       <c r="I263" s="14"/>
       <c r="J263" s="14" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="K263" s="14" t="s">
         <v>187</v>
       </c>
       <c r="L263" s="14" t="s">
+        <v>714</v>
+      </c>
+      <c r="M263" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="N263" s="14" t="s">
         <v>715</v>
       </c>
-      <c r="M263" s="14" t="s">
-        <v>5</v>
-      </c>
-      <c r="N263" s="14" t="s">
-        <v>716</v>
-      </c>
       <c r="O263" s="17"/>
     </row>
-    <row r="264" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A264" s="16"/>
       <c r="B264" s="14" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C264" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D264" s="50" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="E264" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F264" s="36" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G264" s="16"/>
       <c r="H264" s="3"/>
       <c r="I264" s="16"/>
       <c r="J264" s="14" t="s">
+        <v>716</v>
+      </c>
+      <c r="K264" s="14" t="s">
         <v>717</v>
       </c>
-      <c r="K264" s="14" t="s">
-        <v>718</v>
-      </c>
       <c r="L264" s="14" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="M264" s="14" t="s">
         <v>5</v>
@@ -12465,34 +12459,34 @@
       </c>
       <c r="O264" s="16"/>
     </row>
-    <row r="265" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A265" s="17"/>
       <c r="B265" s="50" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C265" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D265" s="50" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="E265" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F265" s="59" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G265" s="16"/>
       <c r="H265" s="3"/>
       <c r="I265" s="16"/>
       <c r="J265" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="K265" s="14" t="s">
         <v>405</v>
       </c>
       <c r="L265" s="14" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="M265" s="14" t="s">
         <v>5</v>
@@ -12502,34 +12496,34 @@
       </c>
       <c r="O265" s="16"/>
     </row>
-    <row r="266" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A266" s="17"/>
       <c r="B266" s="50" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C266" s="14" t="s">
         <v>158</v>
       </c>
       <c r="D266" s="50" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="E266" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F266" s="14" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="G266" s="16"/>
       <c r="H266" s="3"/>
       <c r="I266" s="16"/>
       <c r="J266" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="K266" s="14" t="s">
         <v>190</v>
       </c>
       <c r="L266" s="14" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="M266" s="14" t="s">
         <v>6</v>
@@ -12539,7 +12533,7 @@
       </c>
       <c r="O266" s="16"/>
     </row>
-    <row r="267" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A267" s="4"/>
       <c r="B267" s="53"/>
       <c r="C267" s="3"/>
@@ -12550,40 +12544,40 @@
       <c r="H267" s="3"/>
       <c r="I267" s="16"/>
       <c r="J267" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="K267" s="14" t="s">
         <v>281</v>
       </c>
       <c r="L267" s="14" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="M267" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N267" s="14" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O267" s="16"/>
     </row>
-    <row r="268" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A268" s="17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B268" s="50" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C268" s="14" t="s">
         <v>57</v>
       </c>
       <c r="D268" s="50" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="E268" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F268" s="19" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="G268" s="16">
         <v>4010</v>
@@ -12591,23 +12585,23 @@
       <c r="H268" s="4"/>
       <c r="I268" s="17"/>
       <c r="J268" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="K268" s="14" t="s">
         <v>185</v>
       </c>
       <c r="L268" s="14" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="M268" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N268" s="34" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="O268" s="17"/>
     </row>
-    <row r="269" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:15" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="4"/>
       <c r="B269" s="3"/>
       <c r="C269" s="3"/>
@@ -12618,13 +12612,13 @@
       <c r="H269" s="4"/>
       <c r="I269" s="17"/>
       <c r="J269" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="K269" s="14" t="s">
         <v>161</v>
       </c>
       <c r="L269" s="14" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="M269" s="14" t="s">
         <v>6</v>
@@ -12634,9 +12628,9 @@
       </c>
       <c r="O269" s="17"/>
     </row>
-    <row r="270" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A270" s="17" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -12647,13 +12641,13 @@
       <c r="H270" s="3"/>
       <c r="I270" s="16"/>
       <c r="J270" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="K270" s="14" t="s">
         <v>178</v>
       </c>
       <c r="L270" s="14" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="M270" s="14" t="s">
         <v>6</v>
@@ -12663,24 +12657,24 @@
       </c>
       <c r="O270" s="16"/>
     </row>
-    <row r="271" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="17" t="s">
+        <v>630</v>
+      </c>
+      <c r="B271" s="17" t="s">
         <v>631</v>
-      </c>
-      <c r="B271" s="17" t="s">
-        <v>632</v>
       </c>
       <c r="C271" s="17" t="s">
         <v>318</v>
       </c>
       <c r="D271" s="17" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="E271" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F271" s="17" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G271" s="25">
         <v>4348</v>
@@ -12697,24 +12691,24 @@
     <row r="272" spans="1:15" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="17"/>
       <c r="B272" s="17" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C272" s="17" t="s">
         <v>161</v>
       </c>
       <c r="D272" s="17" t="s">
+        <v>632</v>
+      </c>
+      <c r="E272" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F272" s="17" t="s">
         <v>633</v>
-      </c>
-      <c r="E272" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F272" s="17" t="s">
-        <v>634</v>
       </c>
       <c r="G272" s="17"/>
       <c r="H272" s="3"/>
       <c r="I272" s="14" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="J272" s="14"/>
       <c r="K272" s="16"/>
@@ -12723,36 +12717,36 @@
       <c r="N272" s="16"/>
       <c r="O272" s="16"/>
     </row>
-    <row r="273" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A273" s="17"/>
       <c r="B273" s="17" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C273" s="17" t="s">
         <v>404</v>
       </c>
       <c r="D273" s="17" t="s">
+        <v>634</v>
+      </c>
+      <c r="E273" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F273" s="17" t="s">
         <v>635</v>
-      </c>
-      <c r="E273" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F273" s="17" t="s">
-        <v>636</v>
       </c>
       <c r="G273" s="17"/>
       <c r="H273" s="4"/>
       <c r="I273" s="14" t="s">
+        <v>722</v>
+      </c>
+      <c r="J273" s="14" t="s">
         <v>723</v>
-      </c>
-      <c r="J273" s="14" t="s">
-        <v>724</v>
       </c>
       <c r="K273" s="14" t="s">
         <v>158</v>
       </c>
       <c r="L273" s="14" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="M273" s="14" t="s">
         <v>5</v>
@@ -12763,24 +12757,24 @@
     <row r="274" spans="1:15" ht="11.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="17"/>
       <c r="B274" s="17" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C274" s="17" t="s">
         <v>185</v>
       </c>
       <c r="D274" s="17" t="s">
+        <v>636</v>
+      </c>
+      <c r="E274" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="F274" s="17" t="s">
         <v>637</v>
-      </c>
-      <c r="E274" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="F274" s="17" t="s">
-        <v>638</v>
       </c>
       <c r="G274" s="17"/>
       <c r="H274" s="4"/>
       <c r="I274" s="14" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="J274" s="18">
         <v>621</v>
@@ -12799,92 +12793,92 @@
       </c>
       <c r="O274" s="16"/>
     </row>
-    <row r="275" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A275" s="17"/>
       <c r="B275" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C275" s="17" t="s">
         <v>281</v>
       </c>
       <c r="D275" s="17" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="E275" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F275" s="28" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G275" s="17"/>
       <c r="H275" s="2"/>
       <c r="I275" s="16"/>
       <c r="J275" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="K275" s="14" t="s">
         <v>65</v>
       </c>
       <c r="L275" s="14" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="M275" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N275" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O275" s="18">
         <v>4800</v>
       </c>
     </row>
-    <row r="276" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A276" s="17"/>
       <c r="B276" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="C276" s="17" t="s">
         <v>190</v>
       </c>
       <c r="D276" s="17" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="E276" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F276" s="17" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="G276" s="17"/>
       <c r="H276" s="6"/>
       <c r="I276" s="16"/>
       <c r="J276" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="K276" s="14" t="s">
         <v>77</v>
       </c>
       <c r="L276" s="14" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="M276" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N276" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O276" s="16"/>
     </row>
-    <row r="277" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:15" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="17"/>
       <c r="B277" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="C277" s="17" t="s">
         <v>178</v>
       </c>
       <c r="D277" s="17" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="E277" s="17" t="s">
         <v>5</v>
@@ -12896,32 +12890,32 @@
       <c r="H277" s="8"/>
       <c r="I277" s="17"/>
       <c r="J277" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="K277" s="14" t="s">
         <v>71</v>
       </c>
       <c r="L277" s="14" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="M277" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N277" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O277" s="17"/>
     </row>
-    <row r="278" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="17"/>
       <c r="B278" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="C278" s="17" t="s">
         <v>187</v>
       </c>
       <c r="D278" s="17" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="E278" s="17" t="s">
         <v>6</v>
@@ -12933,38 +12927,38 @@
       <c r="H278" s="3"/>
       <c r="I278" s="16"/>
       <c r="J278" s="14" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="K278" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L278" s="14" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="M278" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N278" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O278" s="16"/>
     </row>
-    <row r="279" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="17"/>
       <c r="B279" s="17" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="C279" s="17" t="s">
         <v>183</v>
       </c>
       <c r="D279" s="17" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E279" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F279" s="28" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G279" s="17"/>
       <c r="H279" s="3"/>
@@ -12976,26 +12970,26 @@
       <c r="L279" s="16"/>
       <c r="M279" s="16"/>
       <c r="N279" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O279" s="16"/>
     </row>
-    <row r="280" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A280" s="17"/>
       <c r="B280" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="C280" s="17" t="s">
         <v>14</v>
       </c>
       <c r="D280" s="17" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E280" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F280" s="17" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G280" s="17"/>
       <c r="H280" s="3"/>
@@ -13007,26 +13001,26 @@
       <c r="L280" s="16"/>
       <c r="M280" s="16"/>
       <c r="N280" s="14" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="O280" s="16"/>
     </row>
     <row r="281" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="17"/>
       <c r="B281" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C281" s="17" t="s">
         <v>7</v>
       </c>
       <c r="D281" s="17" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="E281" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F281" s="28" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G281" s="17"/>
       <c r="H281" s="3"/>
@@ -13038,22 +13032,22 @@
       <c r="N281" s="7"/>
       <c r="O281" s="3"/>
     </row>
-    <row r="282" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A282" s="26"/>
       <c r="B282" s="51" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C282" s="51" t="s">
         <v>190</v>
       </c>
       <c r="D282" s="51" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="E282" s="51" t="s">
         <v>5</v>
       </c>
       <c r="F282" s="52" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="G282" s="26"/>
       <c r="H282" s="3"/>
@@ -13065,7 +13059,7 @@
       <c r="N282" s="3"/>
       <c r="O282" s="3"/>
     </row>
-    <row r="283" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -13084,7 +13078,7 @@
     </row>
     <row r="284" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="14" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="B284" s="14"/>
       <c r="C284" s="16"/>
@@ -13094,7 +13088,7 @@
       <c r="G284" s="16"/>
       <c r="H284" s="7"/>
       <c r="I284" s="14" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="J284" s="14"/>
       <c r="K284" s="17"/>
@@ -13103,12 +13097,12 @@
       <c r="N284" s="17"/>
       <c r="O284" s="17"/>
     </row>
-    <row r="285" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="14" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="B285" s="61" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C285" s="61" t="s">
         <v>14</v>
@@ -13128,7 +13122,7 @@
         <v>40</v>
       </c>
       <c r="J285" s="14" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="K285" s="14" t="s">
         <v>42</v>
@@ -13146,36 +13140,36 @@
         <v>169</v>
       </c>
     </row>
-    <row r="286" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A286" s="14"/>
       <c r="B286" s="61" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
       <c r="C286" s="61" t="s">
         <v>75</v>
       </c>
       <c r="D286" s="61" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="E286" s="61" t="s">
         <v>6</v>
       </c>
       <c r="F286" s="63" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G286" s="62"/>
       <c r="H286" s="7"/>
       <c r="I286" s="14" t="s">
+        <v>795</v>
+      </c>
+      <c r="J286" s="14" t="s">
         <v>796</v>
-      </c>
-      <c r="J286" s="14" t="s">
-        <v>797</v>
       </c>
       <c r="K286" s="14" t="s">
         <v>65</v>
       </c>
       <c r="L286" s="14" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="M286" s="14" t="s">
         <v>5</v>
@@ -13185,16 +13179,16 @@
       </c>
       <c r="O286" s="16"/>
     </row>
-    <row r="287" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A287" s="14"/>
       <c r="B287" s="61" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C287" s="61" t="s">
         <v>65</v>
       </c>
       <c r="D287" s="61" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="E287" s="61" t="s">
         <v>5</v>
@@ -13205,35 +13199,35 @@
       <c r="G287" s="62"/>
       <c r="H287" s="7"/>
       <c r="I287" s="14" t="s">
+        <v>798</v>
+      </c>
+      <c r="J287" s="14" t="s">
         <v>799</v>
-      </c>
-      <c r="J287" s="14" t="s">
-        <v>800</v>
       </c>
       <c r="K287" s="14" t="s">
         <v>14</v>
       </c>
       <c r="L287" s="14" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="M287" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N287" s="14" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="O287" s="16"/>
     </row>
-    <row r="288" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A288" s="14"/>
       <c r="B288" s="14" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C288" s="14" t="s">
         <v>77</v>
       </c>
       <c r="D288" s="14" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E288" s="14" t="s">
         <v>5</v>
@@ -13247,13 +13241,13 @@
       <c r="H288" s="7"/>
       <c r="I288" s="17"/>
       <c r="J288" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="K288" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L288" s="14" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="M288" s="14" t="s">
         <v>5</v>
@@ -13265,53 +13259,53 @@
         <v>4730</v>
       </c>
     </row>
-    <row r="289" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A289" s="16"/>
       <c r="B289" s="14" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C289" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D289" s="14" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E289" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F289" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="G289" s="16"/>
       <c r="H289" s="8"/>
       <c r="I289" s="16"/>
       <c r="J289" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="K289" s="14" t="s">
         <v>15</v>
       </c>
       <c r="L289" s="14" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="M289" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N289" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O289" s="16"/>
     </row>
-    <row r="290" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A290" s="16"/>
       <c r="B290" s="14" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C290" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D290" s="14" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="E290" s="14" t="s">
         <v>6</v>
@@ -13323,34 +13317,34 @@
       <c r="H290" s="9"/>
       <c r="I290" s="16"/>
       <c r="J290" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="K290" s="14" t="s">
         <v>158</v>
       </c>
       <c r="L290" s="14" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="M290" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N290" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O290" s="18">
         <v>4432</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="16"/>
       <c r="B291" s="14" t="s">
+        <v>651</v>
+      </c>
+      <c r="C291" s="14" t="s">
         <v>652</v>
       </c>
-      <c r="C291" s="14" t="s">
-        <v>653</v>
-      </c>
       <c r="D291" s="14" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="E291" s="14" t="s">
         <v>5</v>
@@ -13362,32 +13356,32 @@
       <c r="H291" s="7"/>
       <c r="I291" s="17"/>
       <c r="J291" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="K291" s="14" t="s">
         <v>71</v>
       </c>
       <c r="L291" s="14" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="M291" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N291" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O291" s="17"/>
     </row>
-    <row r="292" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A292" s="16"/>
       <c r="B292" s="14" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C292" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D292" s="14" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="E292" s="14" t="s">
         <v>5</v>
@@ -13399,97 +13393,97 @@
       <c r="H292" s="7"/>
       <c r="I292" s="16"/>
       <c r="J292" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="K292" s="14" t="s">
         <v>59</v>
       </c>
       <c r="L292" s="14" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="M292" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N292" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O292" s="16"/>
     </row>
-    <row r="293" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="16"/>
       <c r="B293" s="14" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="C293" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D293" s="14" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="E293" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F293" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G293" s="17"/>
       <c r="H293" s="7"/>
       <c r="I293" s="16"/>
       <c r="J293" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="K293" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L293" s="14" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="M293" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N293" s="14" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O293" s="16"/>
     </row>
     <row r="294" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="16"/>
       <c r="B294" s="14" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="C294" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D294" s="14" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="E294" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F294" s="19" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G294" s="17"/>
       <c r="H294" s="7"/>
       <c r="I294" s="16"/>
       <c r="J294" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="K294" s="14" t="s">
         <v>75</v>
       </c>
       <c r="L294" s="14" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="M294" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N294" s="19" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="O294" s="16"/>
     </row>
-    <row r="295" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="4"/>
@@ -13500,13 +13494,13 @@
       <c r="H295" s="7"/>
       <c r="I295" s="16"/>
       <c r="J295" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="K295" s="14" t="s">
         <v>65</v>
       </c>
       <c r="L295" s="14" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="M295" s="14" t="s">
         <v>6</v>
@@ -13516,7 +13510,7 @@
       </c>
       <c r="O295" s="16"/>
     </row>
-    <row r="296" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6"/>
       <c r="B296" s="3"/>
       <c r="C296" s="4"/>
@@ -13527,13 +13521,13 @@
       <c r="H296" s="7"/>
       <c r="I296" s="16"/>
       <c r="J296" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="K296" s="14" t="s">
         <v>80</v>
       </c>
       <c r="L296" s="14" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="M296" s="14" t="s">
         <v>6</v>
@@ -13543,18 +13537,18 @@
       </c>
       <c r="O296" s="16"/>
     </row>
-    <row r="297" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="17" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="B297" s="51" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C297" s="51" t="s">
         <v>75</v>
       </c>
       <c r="D297" s="51" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="E297" s="51" t="s">
         <v>5</v>
@@ -13566,34 +13560,34 @@
       <c r="H297" s="7"/>
       <c r="I297" s="17"/>
       <c r="J297" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="K297" s="14" t="s">
         <v>77</v>
       </c>
       <c r="L297" s="14" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="M297" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N297" s="34" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="O297" s="17"/>
     </row>
-    <row r="298" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A298" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="B298" s="17" t="s">
         <v>659</v>
-      </c>
-      <c r="B298" s="17" t="s">
-        <v>660</v>
       </c>
       <c r="C298" s="17" t="s">
         <v>65</v>
       </c>
       <c r="D298" s="17" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="E298" s="17" t="s">
         <v>5</v>
@@ -13605,32 +13599,32 @@
       <c r="H298" s="7"/>
       <c r="I298" s="16"/>
       <c r="J298" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="K298" s="14" t="s">
         <v>65</v>
       </c>
       <c r="L298" s="14" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="M298" s="14" t="s">
         <v>6</v>
       </c>
       <c r="N298" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O298" s="16"/>
     </row>
-    <row r="299" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A299" s="17"/>
       <c r="B299" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C299" s="17" t="s">
         <v>80</v>
       </c>
       <c r="D299" s="17" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E299" s="17" t="s">
         <v>5</v>
@@ -13642,32 +13636,32 @@
       <c r="H299" s="7"/>
       <c r="I299" s="16"/>
       <c r="J299" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="K299" s="14" t="s">
         <v>26</v>
       </c>
       <c r="L299" s="14" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="M299" s="14" t="s">
         <v>5</v>
       </c>
       <c r="N299" s="14" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="O299" s="16"/>
     </row>
-    <row r="300" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A300" s="17"/>
       <c r="B300" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="C300" s="17" t="s">
         <v>26</v>
       </c>
       <c r="D300" s="17" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="E300" s="17" t="s">
         <v>5</v>
@@ -13685,22 +13679,22 @@
       <c r="N300" s="2"/>
       <c r="O300" s="2"/>
     </row>
-    <row r="301" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:15" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A301" s="17"/>
       <c r="B301" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C301" s="17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D301" s="17" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="E301" s="17" t="s">
         <v>5</v>
       </c>
       <c r="F301" s="56" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G301" s="17"/>
       <c r="H301" s="8"/>
@@ -13712,27 +13706,27 @@
       <c r="N301" s="4"/>
       <c r="O301" s="4"/>
     </row>
-    <row r="302" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A302" s="17"/>
       <c r="B302" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="C302" s="17" t="s">
         <v>59</v>
       </c>
       <c r="D302" s="17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="E302" s="17" t="s">
         <v>6</v>
       </c>
       <c r="F302" s="17" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G302" s="17"/>
       <c r="H302" s="3"/>
       <c r="I302" s="14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="J302" s="14"/>
       <c r="K302" s="16"/>
@@ -13741,16 +13735,16 @@
       <c r="N302" s="16"/>
       <c r="O302" s="16"/>
     </row>
-    <row r="303" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="17"/>
       <c r="B303" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C303" s="17" t="s">
         <v>158</v>
       </c>
       <c r="D303" s="17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="E303" s="17" t="s">
         <v>5</v>
@@ -13761,16 +13755,16 @@
       <c r="G303" s="17"/>
       <c r="H303" s="3"/>
       <c r="I303" s="14" t="s">
+        <v>808</v>
+      </c>
+      <c r="J303" s="14" t="s">
         <v>809</v>
-      </c>
-      <c r="J303" s="14" t="s">
-        <v>810</v>
       </c>
       <c r="K303" s="14" t="s">
         <v>21</v>
       </c>
       <c r="L303" s="14" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="M303" s="14" t="s">
         <v>5</v>
@@ -13778,16 +13772,16 @@
       <c r="N303" s="17"/>
       <c r="O303" s="17"/>
     </row>
-    <row r="304" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A304" s="17"/>
       <c r="B304" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="C304" s="17" t="s">
         <v>75</v>
       </c>
       <c r="D304" s="17" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="E304" s="17" t="s">
         <v>5</v>
@@ -13799,13 +13793,13 @@
       <c r="H304" s="7"/>
       <c r="I304" s="16"/>
       <c r="J304" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="K304" s="14" t="s">
         <v>100</v>
       </c>
       <c r="L304" s="14" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="M304" s="14" t="s">
         <v>5</v>
@@ -13813,16 +13807,16 @@
       <c r="N304" s="16"/>
       <c r="O304" s="16"/>
     </row>
-    <row r="305" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="17"/>
       <c r="B305" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="C305" s="17" t="s">
         <v>71</v>
       </c>
       <c r="D305" s="17" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="E305" s="17" t="s">
         <v>5</v>
@@ -13834,13 +13828,13 @@
       <c r="H305" s="3"/>
       <c r="I305" s="16"/>
       <c r="J305" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="K305" s="14" t="s">
         <v>7</v>
       </c>
       <c r="L305" s="14" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M305" s="14" t="s">
         <v>6</v>
@@ -13851,13 +13845,13 @@
     <row r="306" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="17"/>
       <c r="B306" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="C306" s="17" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D306" s="17" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="E306" s="17" t="s">
         <v>5</v>
@@ -13883,7 +13877,7 @@
       <c r="N306" s="16"/>
       <c r="O306" s="16"/>
     </row>
-    <row r="307" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="1"/>
@@ -13908,7 +13902,7 @@
       <c r="N307" s="17"/>
       <c r="O307" s="17"/>
     </row>
-    <row r="308" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A308" s="8"/>
       <c r="B308" s="8"/>
       <c r="C308" s="6"/>
@@ -13933,9 +13927,9 @@
       <c r="N308" s="16"/>
       <c r="O308" s="16"/>
     </row>
-    <row r="309" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="14" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -13999,24 +13993,24 @@
       <c r="N310" s="14"/>
       <c r="O310" s="14"/>
     </row>
-    <row r="311" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="14" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B311" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="C311" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D311" s="14" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="E311" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F311" s="14" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G311" s="16"/>
       <c r="H311" s="7"/>
@@ -14031,13 +14025,13 @@
     <row r="312" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="20"/>
       <c r="B312" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C312" s="14" t="s">
         <v>65</v>
       </c>
       <c r="D312" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="E312" s="14" t="s">
         <v>5</v>
@@ -14048,16 +14042,16 @@
       <c r="G312" s="16"/>
       <c r="H312" s="7"/>
       <c r="I312" s="14" t="s">
+        <v>812</v>
+      </c>
+      <c r="J312" s="14" t="s">
         <v>813</v>
-      </c>
-      <c r="J312" s="14" t="s">
-        <v>814</v>
       </c>
       <c r="K312" s="14" t="s">
         <v>57</v>
       </c>
       <c r="L312" s="14" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="M312" s="14" t="s">
         <v>5</v>
@@ -14065,16 +14059,16 @@
       <c r="N312" s="16"/>
       <c r="O312" s="16"/>
     </row>
-    <row r="313" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
       <c r="B313" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="C313" s="14" t="s">
         <v>59</v>
       </c>
       <c r="D313" s="14" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="E313" s="14" t="s">
         <v>6</v>
@@ -14085,16 +14079,16 @@
       <c r="G313" s="17"/>
       <c r="H313" s="7"/>
       <c r="I313" s="14" t="s">
+        <v>814</v>
+      </c>
+      <c r="J313" s="14" t="s">
+        <v>818</v>
+      </c>
+      <c r="K313" s="14" t="s">
         <v>815</v>
       </c>
-      <c r="J313" s="14" t="s">
-        <v>819</v>
-      </c>
-      <c r="K313" s="14" t="s">
-        <v>816</v>
-      </c>
       <c r="L313" s="14" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="M313" s="14" t="s">
         <v>6</v>
@@ -14102,22 +14096,22 @@
       <c r="N313" s="17"/>
       <c r="O313" s="17"/>
     </row>
-    <row r="314" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
       <c r="B314" s="14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="C314" s="14" t="s">
         <v>7</v>
       </c>
       <c r="D314" s="14" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="E314" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F314" s="14" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="G314" s="16"/>
       <c r="H314" s="7"/>
@@ -14140,13 +14134,13 @@
     <row r="315" spans="1:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="16"/>
       <c r="B315" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="C315" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D315" s="14" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="E315" s="14" t="s">
         <v>5</v>
@@ -14172,7 +14166,7 @@
       <c r="N315" s="17"/>
       <c r="O315" s="17"/>
     </row>
-    <row r="316" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="4"/>
       <c r="B316" s="4"/>
       <c r="C316" s="4"/>
@@ -14186,7 +14180,7 @@
         <v>581</v>
       </c>
       <c r="K316" s="14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="L316" s="18">
         <v>581</v>
@@ -14197,7 +14191,7 @@
       <c r="N316" s="16"/>
       <c r="O316" s="16"/>
     </row>
-    <row r="317" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A317" s="1"/>
       <c r="B317" s="3"/>
       <c r="C317" s="2"/>
@@ -14220,22 +14214,22 @@
         <v>5</v>
       </c>
       <c r="N317" s="36" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="O317" s="16"/>
     </row>
-    <row r="318" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="14" t="s">
+        <v>748</v>
+      </c>
+      <c r="B318" s="14" t="s">
         <v>749</v>
-      </c>
-      <c r="B318" s="14" t="s">
-        <v>750</v>
       </c>
       <c r="C318" s="14" t="s">
         <v>90</v>
       </c>
       <c r="D318" s="14" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="E318" s="14" t="s">
         <v>6</v>
@@ -14259,22 +14253,22 @@
         <v>5</v>
       </c>
       <c r="N318" s="14" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="O318" s="16"/>
     </row>
     <row r="319" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="14" t="s">
+        <v>750</v>
+      </c>
+      <c r="B319" s="14" t="s">
         <v>751</v>
-      </c>
-      <c r="B319" s="14" t="s">
-        <v>752</v>
       </c>
       <c r="C319" s="14" t="s">
         <v>104</v>
       </c>
       <c r="D319" s="14" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="E319" s="14" t="s">
         <v>6</v>
@@ -14292,33 +14286,33 @@
       <c r="N319" s="2"/>
       <c r="O319" s="2"/>
     </row>
-    <row r="320" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="16"/>
       <c r="B320" s="14" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="C320" s="14" t="s">
         <v>122</v>
       </c>
       <c r="D320" s="14" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="E320" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F320" s="14" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G320" s="16"/>
       <c r="H320" s="7"/>
       <c r="I320" s="14" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J320" s="18">
         <v>675</v>
       </c>
       <c r="K320" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="L320" s="18">
         <v>675</v>
@@ -14327,20 +14321,20 @@
         <v>6</v>
       </c>
       <c r="N320" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O320" s="14"/>
     </row>
     <row r="321" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="17"/>
       <c r="B321" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="C321" s="14" t="s">
         <v>98</v>
       </c>
       <c r="D321" s="14" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="E321" s="14" t="s">
         <v>6</v>
@@ -14364,20 +14358,20 @@
         <v>5</v>
       </c>
       <c r="N321" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O321" s="14"/>
     </row>
     <row r="322" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="16"/>
       <c r="B322" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C322" s="15" t="s">
         <v>95</v>
       </c>
       <c r="D322" s="15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="E322" s="15" t="s">
         <v>6</v>
@@ -14401,20 +14395,20 @@
         <v>6</v>
       </c>
       <c r="N322" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O322" s="14"/>
     </row>
-    <row r="323" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="16"/>
       <c r="B323" s="14" t="s">
+        <v>754</v>
+      </c>
+      <c r="C323" s="14" t="s">
         <v>755</v>
       </c>
-      <c r="C323" s="14" t="s">
-        <v>756</v>
-      </c>
       <c r="D323" s="14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="E323" s="14" t="s">
         <v>5</v>
@@ -14438,14 +14432,14 @@
         <v>5</v>
       </c>
       <c r="N323" s="14" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O323" s="14"/>
     </row>
     <row r="324" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="16"/>
       <c r="B324" s="14" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C324" s="16"/>
       <c r="D324" s="16"/>
@@ -14469,14 +14463,14 @@
         <v>6</v>
       </c>
       <c r="N324" s="14" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="O324" s="14"/>
     </row>
     <row r="325" spans="1:15" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="16"/>
       <c r="B325" s="14" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="C325" s="16"/>
       <c r="D325" s="15"/>
@@ -14494,7 +14488,7 @@
       <c r="N325" s="4"/>
       <c r="O325" s="4"/>
     </row>
-    <row r="326" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="4"/>
       <c r="B326" s="4"/>
       <c r="C326" s="4"/>
@@ -14513,7 +14507,7 @@
     </row>
     <row r="327" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="14" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B327" s="14"/>
       <c r="C327" s="16"/>
@@ -14530,18 +14524,18 @@
       <c r="N327" s="7"/>
       <c r="O327" s="7"/>
     </row>
-    <row r="328" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A328" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="B328" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C328" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D328" s="14" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="E328" s="14" t="s">
         <v>5</v>
@@ -14557,7 +14551,7 @@
       <c r="N328" s="7"/>
       <c r="O328" s="7"/>
     </row>
-    <row r="329" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A329" s="14"/>
       <c r="B329" s="14">
         <v>573</v>
@@ -14582,10 +14576,10 @@
       <c r="N329" s="7"/>
       <c r="O329" s="7"/>
     </row>
-    <row r="330" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A330" s="16"/>
       <c r="B330" s="14" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="C330" s="14" t="s">
         <v>158</v>
@@ -14597,7 +14591,7 @@
         <v>5</v>
       </c>
       <c r="F330" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G330" s="2"/>
       <c r="H330" s="9"/>
@@ -14612,10 +14606,10 @@
     <row r="331" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="16"/>
       <c r="B331" s="14" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C331" s="14" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="D331" s="18">
         <v>515</v>
@@ -14624,15 +14618,15 @@
         <v>6</v>
       </c>
       <c r="F331" s="14" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G331" s="2"/>
       <c r="H331" s="9"/>
     </row>
-    <row r="332" spans="1:15" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:15" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="16"/>
       <c r="B332" s="14" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C332" s="14" t="s">
         <v>7</v>
@@ -14644,7 +14638,7 @@
         <v>5</v>
       </c>
       <c r="F332" s="14" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G332" s="4"/>
       <c r="H332" s="7"/>
@@ -14652,7 +14646,7 @@
     <row r="333" spans="1:15" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="17"/>
       <c r="B333" s="14" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="C333" s="14" t="s">
         <v>77</v>
@@ -14664,7 +14658,7 @@
         <v>5</v>
       </c>
       <c r="F333" s="19" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G333" s="2"/>
       <c r="H333" s="2"/>
@@ -14679,18 +14673,18 @@
       <c r="G334" s="3"/>
       <c r="H334" s="2"/>
     </row>
-    <row r="335" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:15" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A335" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="B335" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C335" s="14" t="s">
         <v>14</v>
       </c>
       <c r="D335" s="14" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="E335" s="14" t="s">
         <v>5</v>
@@ -14699,16 +14693,16 @@
       <c r="G335" s="3"/>
       <c r="H335" s="2"/>
     </row>
-    <row r="336" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:15" ht="14.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="14"/>
       <c r="B336" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="C336" s="14" t="s">
         <v>343</v>
       </c>
       <c r="D336" s="14" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="E336" s="14" t="s">
         <v>6</v>
@@ -14717,13 +14711,13 @@
       <c r="G336" s="4"/>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="17"/>
       <c r="B337" s="14" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="C337" s="17" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D337" s="17">
         <v>461</v>
@@ -14732,15 +14726,15 @@
         <v>5</v>
       </c>
       <c r="F337" s="14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G337" s="2"/>
       <c r="H337" s="3"/>
     </row>
-    <row r="338" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="16"/>
       <c r="B338" s="14" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="C338" s="14" t="s">
         <v>15</v>
@@ -14752,47 +14746,47 @@
         <v>6</v>
       </c>
       <c r="F338" s="14" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G338" s="4"/>
       <c r="H338" s="1"/>
     </row>
-    <row r="339" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="17"/>
       <c r="B339" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="C339" s="14" t="s">
         <v>71</v>
       </c>
       <c r="D339" s="14" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="E339" s="14" t="s">
         <v>5</v>
       </c>
       <c r="F339" s="19" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G339" s="2"/>
       <c r="H339" s="1"/>
     </row>
-    <row r="340" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A340" s="16"/>
       <c r="B340" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C340" s="14" t="s">
         <v>80</v>
       </c>
       <c r="D340" s="14" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="E340" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F340" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="1"/>
@@ -14800,19 +14794,19 @@
     <row r="341" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="17"/>
       <c r="B341" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="C341" s="14" t="s">
         <v>26</v>
       </c>
       <c r="D341" s="14" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="E341" s="14" t="s">
         <v>6</v>
       </c>
       <c r="F341" s="14" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="G341" s="2"/>
       <c r="H341" s="1"/>
@@ -14829,16 +14823,16 @@
     </row>
     <row r="343" spans="1:8" ht="14.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="14" t="s">
+        <v>769</v>
+      </c>
+      <c r="B343" s="14" t="s">
         <v>770</v>
       </c>
-      <c r="B343" s="14" t="s">
+      <c r="C343" s="14" t="s">
         <v>771</v>
       </c>
-      <c r="C343" s="14" t="s">
-        <v>772</v>
-      </c>
       <c r="D343" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="E343" s="14" t="s">
         <v>5</v>
@@ -14847,16 +14841,16 @@
       <c r="G343" s="2"/>
       <c r="H343" s="1"/>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A344" s="16"/>
       <c r="B344" s="14" t="s">
+        <v>772</v>
+      </c>
+      <c r="C344" s="14" t="s">
         <v>773</v>
       </c>
-      <c r="C344" s="14" t="s">
-        <v>774</v>
-      </c>
       <c r="D344" s="14" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="E344" s="14" t="s">
         <v>6</v>
@@ -14865,16 +14859,16 @@
       <c r="G344" s="2"/>
       <c r="H344" s="1"/>
     </row>
-    <row r="345" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A345" s="16"/>
       <c r="B345" s="14" t="s">
+        <v>774</v>
+      </c>
+      <c r="C345" s="14" t="s">
         <v>775</v>
       </c>
-      <c r="C345" s="14" t="s">
-        <v>776</v>
-      </c>
       <c r="D345" s="14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="E345" s="14" t="s">
         <v>5</v>
@@ -14883,13 +14877,13 @@
       <c r="G345" s="4"/>
       <c r="H345" s="1"/>
     </row>
-    <row r="346" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="A346" s="17"/>
       <c r="B346" s="14" t="s">
+        <v>776</v>
+      </c>
+      <c r="C346" s="14" t="s">
         <v>777</v>
-      </c>
-      <c r="C346" s="14" t="s">
-        <v>778</v>
       </c>
       <c r="D346" s="18">
         <v>460</v>
@@ -14898,21 +14892,21 @@
         <v>5</v>
       </c>
       <c r="F346" s="14" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="1"/>
     </row>
-    <row r="347" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="17"/>
       <c r="B347" s="14" t="s">
+        <v>778</v>
+      </c>
+      <c r="C347" s="14" t="s">
         <v>779</v>
       </c>
-      <c r="C347" s="14" t="s">
-        <v>780</v>
-      </c>
       <c r="D347" s="14" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="E347" s="14" t="s">
         <v>5</v>
@@ -14921,16 +14915,16 @@
       <c r="G347" s="4"/>
       <c r="H347" s="1"/>
     </row>
-    <row r="348" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A348" s="17"/>
       <c r="B348" s="14" t="s">
+        <v>780</v>
+      </c>
+      <c r="C348" s="14" t="s">
         <v>781</v>
       </c>
-      <c r="C348" s="14" t="s">
-        <v>782</v>
-      </c>
       <c r="D348" s="14" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="E348" s="14" t="s">
         <v>6</v>
@@ -14939,13 +14933,13 @@
       <c r="G348" s="2"/>
       <c r="H348" s="1"/>
     </row>
-    <row r="349" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="A349" s="16"/>
       <c r="B349" s="18">
         <v>508</v>
       </c>
       <c r="C349" s="14" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D349" s="18">
         <v>508</v>
@@ -14975,7 +14969,7 @@
       <c r="G350" s="4"/>
       <c r="H350" s="1"/>
     </row>
-    <row r="351" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="17"/>
       <c r="B351" s="14">
         <v>510</v>
@@ -15029,7 +15023,7 @@
       <c r="G353" s="2"/>
       <c r="H353" s="1"/>
     </row>
-    <row r="354" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="16"/>
       <c r="B354" s="41">
         <v>557</v>
@@ -15044,7 +15038,7 @@
         <v>6</v>
       </c>
       <c r="F354" s="42" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G354" s="7"/>
       <c r="H354" s="1"/>
@@ -15055,7 +15049,7 @@
         <v>558</v>
       </c>
       <c r="C355" s="14" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D355" s="18">
         <v>558</v>
@@ -15064,7 +15058,7 @@
         <v>6</v>
       </c>
       <c r="F355" s="14" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G355" s="7"/>
       <c r="H355" s="1"/>
@@ -15079,7 +15073,7 @@
       <c r="G356" s="11"/>
       <c r="H356" s="1"/>
     </row>
-    <row r="357" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="11"/>
       <c r="B357" s="11"/>
       <c r="C357" s="11"/>
@@ -15089,7 +15083,7 @@
       <c r="G357" s="11"/>
       <c r="H357" s="1"/>
     </row>
-    <row r="358" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="11"/>
       <c r="B358" s="11"/>
       <c r="C358" s="11"/>
@@ -15099,7 +15093,7 @@
       <c r="G358" s="11"/>
       <c r="H358" s="1"/>
     </row>
-    <row r="359" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:8" ht="20.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="11"/>
       <c r="B359" s="11"/>
       <c r="C359" s="11"/>
@@ -15109,7 +15103,7 @@
       <c r="G359" s="11"/>
       <c r="H359" s="1"/>
     </row>
-    <row r="360" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="11"/>
       <c r="B360" s="11"/>
       <c r="C360" s="11"/>
@@ -15118,61 +15112,61 @@
       <c r="F360" s="11"/>
       <c r="H360" s="1"/>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="H361" s="1"/>
     </row>
-    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="H362" s="1"/>
     </row>
-    <row r="363" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H363" s="1"/>
     </row>
-    <row r="364" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H364" s="1"/>
     </row>
-    <row r="365" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:8" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H365" s="1"/>
     </row>
-    <row r="366" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H366" s="1"/>
     </row>
-    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="H367" s="1"/>
     </row>
-    <row r="368" spans="1:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H368" s="1"/>
     </row>
-    <row r="369" spans="8:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="8:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H369" s="1"/>
     </row>
-    <row r="370" spans="8:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="8:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H370" s="1"/>
     </row>
-    <row r="371" spans="8:8" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="8:8" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H371" s="1"/>
     </row>
-    <row r="372" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="372" spans="8:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="H372" s="1"/>
     </row>
-    <row r="373" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="373" spans="8:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="H373" s="1"/>
     </row>
-    <row r="374" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="374" spans="8:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="H374" s="1"/>
     </row>
-    <row r="375" spans="8:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="8:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H375" s="1"/>
     </row>
-    <row r="376" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="376" spans="8:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="H376" s="1"/>
     </row>
-    <row r="377" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="377" spans="8:8" ht="13.5" x14ac:dyDescent="0.2">
       <c r="H377" s="1"/>
     </row>
-    <row r="378" spans="8:8" ht="24.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="8:8" ht="24.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H378" s="6"/>
     </row>
-    <row r="379" spans="8:8" ht="12" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="8:8" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="H379" s="6"/>
     </row>
   </sheetData>

--- a/data/RawData/ObsData/2001-2009/01-04-2003.xlsx
+++ b/data/RawData/ObsData/2001-2009/01-04-2003.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aponchon\Nextcloud\Aurore Ponchon\Projects\Golden Lion Tamarins Brazil\Analysis\GoldenLionTamarins\data\RawData\ObsData\2001-2009\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C419FF52-AABD-46EA-927E-8A04701143FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F3158C3-F419-44E7-86EF-E5463C2B33EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="675" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2532" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2533" uniqueCount="911">
   <si>
     <t>Emmen</t>
   </si>
@@ -3880,8 +3880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O379"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="F52" sqref="F52"/>
+    <sheetView tabSelected="1" topLeftCell="A147" workbookViewId="0">
+      <selection activeCell="D169" sqref="D169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.33203125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9167,7 +9167,7 @@
         <v>855</v>
       </c>
       <c r="M165" s="17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N165" s="28" t="s">
         <v>299</v>
@@ -9194,7 +9194,7 @@
         <v>856</v>
       </c>
       <c r="M166" s="17" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N166" s="28" t="s">
         <v>859</v>
@@ -9233,7 +9233,7 @@
         <v>857</v>
       </c>
       <c r="M167" s="17" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="N167" s="28" t="s">
         <v>289</v>
@@ -9250,7 +9250,9 @@
       <c r="C168" s="14" t="s">
         <v>7</v>
       </c>
-      <c r="D168" s="14"/>
+      <c r="D168" s="14" t="s">
+        <v>6</v>
+      </c>
       <c r="E168" s="14" t="s">
         <v>6</v>
       </c>
